--- a/BackTest/2019-10-18 BackTest XMR.xlsx
+++ b/BackTest/2019-10-18 BackTest XMR.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>300</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>69800</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>750</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L13" t="n">
         <v>69850</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>800</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>71.42857142857143</v>
+      </c>
       <c r="L14" t="n">
         <v>69905</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>850</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>73.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>69960</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>900</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>73.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>70020</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>950</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>86.66666666666667</v>
+      </c>
       <c r="L17" t="n">
         <v>70080</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>950</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>85.71428571428571</v>
+      </c>
       <c r="L18" t="n">
         <v>70145</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1250</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>36.84210526315789</v>
+      </c>
       <c r="L19" t="n">
         <v>70175</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1500</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>70235</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1700</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L21" t="n">
         <v>70275</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1900</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>13.04347826086956</v>
+      </c>
       <c r="L22" t="n">
         <v>70335</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1950</v>
       </c>
       <c r="K23" t="n">
-        <v>31.57894736842105</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L23" t="n">
         <v>70345</v>
@@ -1466,7 +1488,7 @@
         <v>1950</v>
       </c>
       <c r="K24" t="n">
-        <v>31.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>70350</v>
@@ -1515,7 +1537,7 @@
         <v>1950</v>
       </c>
       <c r="K25" t="n">
-        <v>29.72972972972973</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L25" t="n">
         <v>70350</v>
@@ -1564,7 +1586,7 @@
         <v>2200</v>
       </c>
       <c r="K26" t="n">
-        <v>14.28571428571428</v>
+        <v>-28</v>
       </c>
       <c r="L26" t="n">
         <v>70320</v>
@@ -1613,7 +1635,7 @@
         <v>2400</v>
       </c>
       <c r="K27" t="n">
-        <v>20</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L27" t="n">
         <v>70305</v>
@@ -1662,7 +1684,7 @@
         <v>2550</v>
       </c>
       <c r="K28" t="n">
-        <v>27.65957446808511</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L28" t="n">
         <v>70305</v>
@@ -1711,7 +1733,7 @@
         <v>2600</v>
       </c>
       <c r="K29" t="n">
-        <v>23.40425531914894</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>70330</v>
@@ -1760,7 +1782,7 @@
         <v>2650</v>
       </c>
       <c r="K30" t="n">
-        <v>27.65957446808511</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L30" t="n">
         <v>70335</v>
@@ -1809,7 +1831,7 @@
         <v>2700</v>
       </c>
       <c r="K31" t="n">
-        <v>29.16666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="L31" t="n">
         <v>70365</v>
@@ -1860,7 +1882,7 @@
         <v>2700</v>
       </c>
       <c r="K32" t="n">
-        <v>29.16666666666667</v>
+        <v>20</v>
       </c>
       <c r="L32" t="n">
         <v>70375</v>
@@ -1911,7 +1933,7 @@
         <v>2700</v>
       </c>
       <c r="K33" t="n">
-        <v>12.82051282051282</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>70390</v>
@@ -1962,7 +1984,7 @@
         <v>3550</v>
       </c>
       <c r="K34" t="n">
-        <v>38.18181818181819</v>
+        <v>62.5</v>
       </c>
       <c r="L34" t="n">
         <v>70490</v>
@@ -2013,7 +2035,7 @@
         <v>4100</v>
       </c>
       <c r="K35" t="n">
-        <v>13.84615384615385</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L35" t="n">
         <v>70535</v>
@@ -2064,7 +2086,7 @@
         <v>4300</v>
       </c>
       <c r="K36" t="n">
-        <v>5.88235294117647</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L36" t="n">
         <v>70585</v>
@@ -2115,7 +2137,7 @@
         <v>4400</v>
       </c>
       <c r="K37" t="n">
-        <v>1.449275362318841</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L37" t="n">
         <v>70605</v>
@@ -2166,7 +2188,7 @@
         <v>4500</v>
       </c>
       <c r="K38" t="n">
-        <v>4.225352112676056</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L38" t="n">
         <v>70620</v>
@@ -2217,7 +2239,7 @@
         <v>4650</v>
       </c>
       <c r="K39" t="n">
-        <v>8.823529411764707</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>70625</v>
@@ -2268,7 +2290,7 @@
         <v>4700</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="L40" t="n">
         <v>70620</v>
@@ -2319,7 +2341,7 @@
         <v>5150</v>
       </c>
       <c r="K41" t="n">
-        <v>18.84057971014493</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>70655</v>
@@ -2370,7 +2392,7 @@
         <v>5150</v>
       </c>
       <c r="K42" t="n">
-        <v>13.84615384615385</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>70690</v>
@@ -2421,7 +2443,7 @@
         <v>5400</v>
       </c>
       <c r="K43" t="n">
-        <v>21.73913043478261</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L43" t="n">
         <v>70750</v>
@@ -2472,7 +2494,7 @@
         <v>5400</v>
       </c>
       <c r="K44" t="n">
-        <v>21.73913043478261</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L44" t="n">
         <v>70725</v>
@@ -2523,7 +2545,7 @@
         <v>5500</v>
       </c>
       <c r="K45" t="n">
-        <v>23.94366197183098</v>
+        <v>50</v>
       </c>
       <c r="L45" t="n">
         <v>70765</v>
@@ -2574,7 +2596,7 @@
         <v>5750</v>
       </c>
       <c r="K46" t="n">
-        <v>38.0281690140845</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L46" t="n">
         <v>70850</v>
@@ -2625,7 +2647,7 @@
         <v>6000</v>
       </c>
       <c r="K47" t="n">
-        <v>38.88888888888889</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>70970</v>
@@ -2676,7 +2698,7 @@
         <v>6400</v>
       </c>
       <c r="K48" t="n">
-        <v>22.07792207792208</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L48" t="n">
         <v>71040</v>
@@ -2727,7 +2749,7 @@
         <v>6700</v>
       </c>
       <c r="K49" t="n">
-        <v>14.63414634146341</v>
+        <v>30</v>
       </c>
       <c r="L49" t="n">
         <v>71095</v>
@@ -2778,7 +2800,7 @@
         <v>6800</v>
       </c>
       <c r="K50" t="n">
-        <v>10.8433734939759</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L50" t="n">
         <v>71145</v>
@@ -2829,7 +2851,7 @@
         <v>7050</v>
       </c>
       <c r="K51" t="n">
-        <v>14.94252873563219</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L51" t="n">
         <v>71175</v>
@@ -2880,7 +2902,7 @@
         <v>7600</v>
       </c>
       <c r="K52" t="n">
-        <v>2.040816326530612</v>
+        <v>-22.72727272727273</v>
       </c>
       <c r="L52" t="n">
         <v>71150</v>
@@ -2931,7 +2953,7 @@
         <v>7850</v>
       </c>
       <c r="K53" t="n">
-        <v>-2.912621359223301</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L53" t="n">
         <v>71075</v>
@@ -2982,7 +3004,7 @@
         <v>8500</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.07070707070707</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L54" t="n">
         <v>71065</v>
@@ -3033,7 +3055,7 @@
         <v>8550</v>
       </c>
       <c r="K55" t="n">
-        <v>3.370786516853932</v>
+        <v>-17.85714285714286</v>
       </c>
       <c r="L55" t="n">
         <v>71040</v>
@@ -3084,7 +3106,7 @@
         <v>9000</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.127659574468085</v>
+        <v>-40</v>
       </c>
       <c r="L56" t="n">
         <v>70945</v>
@@ -3135,7 +3157,7 @@
         <v>9100</v>
       </c>
       <c r="K57" t="n">
-        <v>2.127659574468085</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L57" t="n">
         <v>70835</v>
@@ -3186,7 +3208,7 @@
         <v>9250</v>
       </c>
       <c r="K58" t="n">
-        <v>-3.157894736842105</v>
+        <v>-21.56862745098039</v>
       </c>
       <c r="L58" t="n">
         <v>70750</v>
@@ -3237,7 +3259,7 @@
         <v>9500</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.154639175257731</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L59" t="n">
         <v>70670</v>
@@ -3288,7 +3310,7 @@
         <v>9750</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9900990099009901</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L60" t="n">
         <v>70625</v>
@@ -3339,7 +3361,7 @@
         <v>10000</v>
       </c>
       <c r="K61" t="n">
-        <v>-13.4020618556701</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>70530</v>
@@ -3390,7 +3412,7 @@
         <v>10200</v>
       </c>
       <c r="K62" t="n">
-        <v>-8.91089108910891</v>
+        <v>2.127659574468085</v>
       </c>
       <c r="L62" t="n">
         <v>70510</v>
@@ -3441,7 +3463,7 @@
         <v>10200</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.58333333333333</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L63" t="n">
         <v>70515</v>
@@ -3492,7 +3514,7 @@
         <v>10450</v>
       </c>
       <c r="K64" t="n">
-        <v>-8.91089108910891</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L64" t="n">
         <v>70480</v>
@@ -3543,7 +3565,7 @@
         <v>10900</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.851851851851852</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L65" t="n">
         <v>70495</v>
@@ -3594,7 +3616,7 @@
         <v>11500</v>
       </c>
       <c r="K66" t="n">
-        <v>-16.52173913043478</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>70495</v>
@@ -3645,7 +3667,7 @@
         <v>11700</v>
       </c>
       <c r="K67" t="n">
-        <v>-24.56140350877193</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L67" t="n">
         <v>70465</v>
@@ -3696,7 +3718,7 @@
         <v>12100</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.52631578947368</v>
+        <v>19.23076923076923</v>
       </c>
       <c r="L68" t="n">
         <v>70490</v>
@@ -3747,7 +3769,7 @@
         <v>12300</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.928571428571429</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="L69" t="n">
         <v>70520</v>
@@ -3798,7 +3820,7 @@
         <v>12650</v>
       </c>
       <c r="K70" t="n">
-        <v>-12.82051282051282</v>
+        <v>-1.886792452830189</v>
       </c>
       <c r="L70" t="n">
         <v>70490</v>
@@ -3849,7 +3871,7 @@
         <v>13100</v>
       </c>
       <c r="K71" t="n">
-        <v>-9.090909090909092</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L71" t="n">
         <v>70530</v>
@@ -3900,7 +3922,7 @@
         <v>13150</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.9009009009009009</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="L72" t="n">
         <v>70545</v>
@@ -3951,7 +3973,7 @@
         <v>13150</v>
       </c>
       <c r="K73" t="n">
-        <v>3.773584905660377</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L73" t="n">
         <v>70560</v>
@@ -4002,7 +4024,7 @@
         <v>13500</v>
       </c>
       <c r="K74" t="n">
-        <v>-16</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L74" t="n">
         <v>70515</v>
@@ -4053,7 +4075,7 @@
         <v>13600</v>
       </c>
       <c r="K75" t="n">
-        <v>-12.87128712871287</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L75" t="n">
         <v>70435</v>
@@ -4104,7 +4126,7 @@
         <v>13850</v>
       </c>
       <c r="K76" t="n">
-        <v>1.030927835051546</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L76" t="n">
         <v>70440</v>
@@ -4155,7 +4177,7 @@
         <v>13850</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.052631578947368</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L77" t="n">
         <v>70465</v>
@@ -4206,7 +4228,7 @@
         <v>13850</v>
       </c>
       <c r="K78" t="n">
-        <v>2.173913043478261</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L78" t="n">
         <v>70450</v>
@@ -4257,7 +4279,7 @@
         <v>13850</v>
       </c>
       <c r="K79" t="n">
-        <v>8.045977011494253</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>70455</v>
@@ -4308,7 +4330,7 @@
         <v>14050</v>
       </c>
       <c r="K80" t="n">
-        <v>6.976744186046512</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L80" t="n">
         <v>70515</v>
@@ -4359,7 +4381,7 @@
         <v>14400</v>
       </c>
       <c r="K81" t="n">
-        <v>20.45454545454546</v>
+        <v>44</v>
       </c>
       <c r="L81" t="n">
         <v>70565</v>
@@ -4410,7 +4432,7 @@
         <v>14400</v>
       </c>
       <c r="K82" t="n">
-        <v>16.66666666666666</v>
+        <v>44</v>
       </c>
       <c r="L82" t="n">
         <v>70620</v>
@@ -4461,7 +4483,7 @@
         <v>15000</v>
       </c>
       <c r="K83" t="n">
-        <v>2.083333333333333</v>
+        <v>20</v>
       </c>
       <c r="L83" t="n">
         <v>70615</v>
@@ -4512,7 +4534,7 @@
         <v>15550</v>
       </c>
       <c r="K84" t="n">
-        <v>7.84313725490196</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L84" t="n">
         <v>70700</v>
@@ -4563,7 +4585,7 @@
         <v>15600</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.127659574468085</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L85" t="n">
         <v>70770</v>
@@ -4614,7 +4636,7 @@
         <v>15600</v>
       </c>
       <c r="K86" t="n">
-        <v>12.19512195121951</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L86" t="n">
         <v>70815</v>
@@ -4665,7 +4687,7 @@
         <v>15650</v>
       </c>
       <c r="K87" t="n">
-        <v>16.45569620253164</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L87" t="n">
         <v>70855</v>
@@ -4716,7 +4738,7 @@
         <v>16200</v>
       </c>
       <c r="K88" t="n">
-        <v>-7.317073170731707</v>
+        <v>-6.382978723404255</v>
       </c>
       <c r="L88" t="n">
         <v>70840</v>
@@ -4767,7 +4789,7 @@
         <v>16250</v>
       </c>
       <c r="K89" t="n">
-        <v>-1.265822784810127</v>
+        <v>-13.63636363636363</v>
       </c>
       <c r="L89" t="n">
         <v>70830</v>
@@ -4818,7 +4840,7 @@
         <v>16350</v>
       </c>
       <c r="K90" t="n">
-        <v>10.81081081081081</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L90" t="n">
         <v>70810</v>
@@ -4869,7 +4891,7 @@
         <v>16700</v>
       </c>
       <c r="K91" t="n">
-        <v>8.333333333333332</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L91" t="n">
         <v>70790</v>
@@ -4920,7 +4942,7 @@
         <v>16700</v>
       </c>
       <c r="K92" t="n">
-        <v>9.859154929577464</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L92" t="n">
         <v>70770</v>
@@ -4971,7 +4993,7 @@
         <v>16750</v>
       </c>
       <c r="K93" t="n">
-        <v>11.11111111111111</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L93" t="n">
         <v>70815</v>
@@ -5022,7 +5044,7 @@
         <v>16800</v>
       </c>
       <c r="K94" t="n">
-        <v>21.21212121212121</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L94" t="n">
         <v>70800</v>
@@ -5073,7 +5095,7 @@
         <v>16950</v>
       </c>
       <c r="K95" t="n">
-        <v>22.38805970149254</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L95" t="n">
         <v>70805</v>
@@ -5124,7 +5146,7 @@
         <v>17000</v>
       </c>
       <c r="K96" t="n">
-        <v>17.46031746031746</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>70815</v>
@@ -5175,7 +5197,7 @@
         <v>17000</v>
       </c>
       <c r="K97" t="n">
-        <v>17.46031746031746</v>
+        <v>87.5</v>
       </c>
       <c r="L97" t="n">
         <v>70830</v>
@@ -5226,7 +5248,7 @@
         <v>17000</v>
       </c>
       <c r="K98" t="n">
-        <v>17.46031746031746</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L98" t="n">
         <v>70900</v>
@@ -5277,7 +5299,7 @@
         <v>17000</v>
       </c>
       <c r="K99" t="n">
-        <v>17.46031746031746</v>
+        <v>84.61538461538461</v>
       </c>
       <c r="L99" t="n">
         <v>70965</v>
@@ -5328,7 +5350,7 @@
         <v>17000</v>
       </c>
       <c r="K100" t="n">
-        <v>11.86440677966102</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L100" t="n">
         <v>71020</v>
@@ -5379,7 +5401,7 @@
         <v>17000</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L101" t="n">
         <v>71040</v>
@@ -5430,7 +5452,7 @@
         <v>17000</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L102" t="n">
         <v>71060</v>
@@ -5481,7 +5503,7 @@
         <v>17100</v>
       </c>
       <c r="K103" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L103" t="n">
         <v>71085</v>
@@ -5532,7 +5554,7 @@
         <v>17300</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>71135</v>
@@ -5583,7 +5605,7 @@
         <v>17600</v>
       </c>
       <c r="K105" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="L105" t="n">
         <v>71200</v>
@@ -5634,7 +5656,7 @@
         <v>17750</v>
       </c>
       <c r="K106" t="n">
-        <v>39.53488372093023</v>
+        <v>100</v>
       </c>
       <c r="L106" t="n">
         <v>71275</v>
@@ -5685,7 +5707,7 @@
         <v>17800</v>
       </c>
       <c r="K107" t="n">
-        <v>39.53488372093023</v>
+        <v>87.5</v>
       </c>
       <c r="L107" t="n">
         <v>71345</v>
@@ -5787,7 +5809,7 @@
         <v>17850</v>
       </c>
       <c r="K109" t="n">
-        <v>87.5</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L109" t="n">
         <v>71490</v>
@@ -5838,7 +5860,7 @@
         <v>17900</v>
       </c>
       <c r="K110" t="n">
-        <v>87.09677419354838</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L110" t="n">
         <v>71570</v>
@@ -5889,7 +5911,7 @@
         <v>17900</v>
       </c>
       <c r="K111" t="n">
-        <v>83.33333333333334</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="L111" t="n">
         <v>71650</v>
@@ -5940,7 +5962,7 @@
         <v>18450</v>
       </c>
       <c r="K112" t="n">
-        <v>25.71428571428571</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L112" t="n">
         <v>71675</v>
@@ -5991,7 +6013,7 @@
         <v>18750</v>
       </c>
       <c r="K113" t="n">
-        <v>35</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L113" t="n">
         <v>71720</v>
@@ -6042,7 +6064,7 @@
         <v>18850</v>
       </c>
       <c r="K114" t="n">
-        <v>31.70731707317073</v>
+        <v>-12</v>
       </c>
       <c r="L114" t="n">
         <v>71735</v>
@@ -6093,7 +6115,7 @@
         <v>18900</v>
       </c>
       <c r="K115" t="n">
-        <v>23.07692307692308</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L115" t="n">
         <v>71715</v>
@@ -6144,7 +6166,7 @@
         <v>19400</v>
       </c>
       <c r="K116" t="n">
-        <v>-4.166666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L116" t="n">
         <v>71630</v>
@@ -6195,7 +6217,7 @@
         <v>19850</v>
       </c>
       <c r="K117" t="n">
-        <v>12.28070175438596</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L117" t="n">
         <v>71595</v>
@@ -6246,7 +6268,7 @@
         <v>20300</v>
       </c>
       <c r="K118" t="n">
-        <v>-3.03030303030303</v>
+        <v>-34.69387755102041</v>
       </c>
       <c r="L118" t="n">
         <v>71515</v>
@@ -6297,7 +6319,7 @@
         <v>20300</v>
       </c>
       <c r="K119" t="n">
-        <v>-3.03030303030303</v>
+        <v>-37.5</v>
       </c>
       <c r="L119" t="n">
         <v>71430</v>
@@ -6348,7 +6370,7 @@
         <v>20750</v>
       </c>
       <c r="K120" t="n">
-        <v>9.333333333333334</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L120" t="n">
         <v>71385</v>
@@ -6399,7 +6421,7 @@
         <v>21200</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.380952380952381</v>
+        <v>-12.72727272727273</v>
       </c>
       <c r="L121" t="n">
         <v>71295</v>
@@ -6450,7 +6472,7 @@
         <v>21250</v>
       </c>
       <c r="K122" t="n">
-        <v>-1.176470588235294</v>
+        <v>-24</v>
       </c>
       <c r="L122" t="n">
         <v>71265</v>
@@ -6501,7 +6523,7 @@
         <v>21250</v>
       </c>
       <c r="K123" t="n">
-        <v>-3.614457831325301</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L123" t="n">
         <v>71205</v>
@@ -6552,7 +6574,7 @@
         <v>21650</v>
       </c>
       <c r="K124" t="n">
-        <v>-17.24137931034483</v>
+        <v>-30.90909090909091</v>
       </c>
       <c r="L124" t="n">
         <v>71115</v>
@@ -6603,7 +6625,7 @@
         <v>21650</v>
       </c>
       <c r="K125" t="n">
-        <v>-25.92592592592592</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L125" t="n">
         <v>71030</v>
@@ -6654,7 +6676,7 @@
         <v>21800</v>
       </c>
       <c r="K126" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>71010</v>
@@ -6705,7 +6727,7 @@
         <v>22000</v>
       </c>
       <c r="K127" t="n">
-        <v>-28.57142857142857</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L127" t="n">
         <v>70925</v>
@@ -6756,7 +6778,7 @@
         <v>22000</v>
       </c>
       <c r="K128" t="n">
-        <v>-28.57142857142857</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L128" t="n">
         <v>70885</v>
@@ -6807,7 +6829,7 @@
         <v>22000</v>
       </c>
       <c r="K129" t="n">
-        <v>-30.12048192771084</v>
+        <v>-68</v>
       </c>
       <c r="L129" t="n">
         <v>70845</v>
@@ -6858,7 +6880,7 @@
         <v>22450</v>
       </c>
       <c r="K130" t="n">
-        <v>-38.46153846153847</v>
+        <v>-68</v>
       </c>
       <c r="L130" t="n">
         <v>70715</v>
@@ -6909,7 +6931,7 @@
         <v>23100</v>
       </c>
       <c r="K131" t="n">
-        <v>-21.15384615384615</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L131" t="n">
         <v>70695</v>
@@ -6960,7 +6982,7 @@
         <v>23150</v>
       </c>
       <c r="K132" t="n">
-        <v>-12.76595744680851</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L132" t="n">
         <v>70665</v>
@@ -7011,7 +7033,7 @@
         <v>23450</v>
       </c>
       <c r="K133" t="n">
-        <v>-25.53191489361702</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L133" t="n">
         <v>70605</v>
@@ -7062,7 +7084,7 @@
         <v>23500</v>
       </c>
       <c r="K134" t="n">
-        <v>-24.73118279569892</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L134" t="n">
         <v>70580</v>
@@ -7113,7 +7135,7 @@
         <v>23500</v>
       </c>
       <c r="K135" t="n">
-        <v>-23.91304347826087</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L135" t="n">
         <v>70555</v>
@@ -7164,7 +7186,7 @@
         <v>23900</v>
       </c>
       <c r="K136" t="n">
-        <v>-4.444444444444445</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L136" t="n">
         <v>70555</v>
@@ -7215,7 +7237,7 @@
         <v>24300</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.59550561797753</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L137" t="n">
         <v>70535</v>
@@ -7266,7 +7288,7 @@
         <v>24650</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.747126436781609</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L138" t="n">
         <v>70550</v>
@@ -7317,7 +7339,7 @@
         <v>25000</v>
       </c>
       <c r="K139" t="n">
-        <v>-12.76595744680851</v>
+        <v>9.803921568627452</v>
       </c>
       <c r="L139" t="n">
         <v>70530</v>
@@ -7368,7 +7390,7 @@
         <v>25100</v>
       </c>
       <c r="K140" t="n">
-        <v>-21.83908045977012</v>
+        <v>-15</v>
       </c>
       <c r="L140" t="n">
         <v>70565</v>
@@ -7419,7 +7441,7 @@
         <v>25350</v>
       </c>
       <c r="K141" t="n">
-        <v>-6.024096385542169</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>70560</v>
@@ -7470,7 +7492,7 @@
         <v>25500</v>
       </c>
       <c r="K142" t="n">
-        <v>-10.58823529411765</v>
+        <v>7.317073170731707</v>
       </c>
       <c r="L142" t="n">
         <v>70545</v>
@@ -7521,7 +7543,7 @@
         <v>25700</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.617977528089887</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L143" t="n">
         <v>70580</v>
@@ -7572,7 +7594,7 @@
         <v>25900</v>
       </c>
       <c r="K144" t="n">
-        <v>-1.176470588235294</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L144" t="n">
         <v>70600</v>
@@ -7623,7 +7645,7 @@
         <v>26000</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.448275862068965</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L145" t="n">
         <v>70610</v>
@@ -7674,7 +7696,7 @@
         <v>26000</v>
       </c>
       <c r="K146" t="n">
-        <v>-7.142857142857142</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L146" t="n">
         <v>70580</v>
@@ -7725,7 +7747,7 @@
         <v>26000</v>
       </c>
       <c r="K147" t="n">
-        <v>-2.5</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L147" t="n">
         <v>70590</v>
@@ -7776,7 +7798,7 @@
         <v>26000</v>
       </c>
       <c r="K148" t="n">
-        <v>-2.5</v>
+        <v>10</v>
       </c>
       <c r="L148" t="n">
         <v>70565</v>
@@ -7827,7 +7849,7 @@
         <v>26000</v>
       </c>
       <c r="K149" t="n">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>70575</v>
@@ -7878,7 +7900,7 @@
         <v>26150</v>
       </c>
       <c r="K150" t="n">
-        <v>5.405405405405405</v>
+        <v>-50</v>
       </c>
       <c r="L150" t="n">
         <v>70560</v>
@@ -7929,7 +7951,7 @@
         <v>26200</v>
       </c>
       <c r="K151" t="n">
-        <v>-16.12903225806452</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L151" t="n">
         <v>70515</v>
@@ -7980,7 +8002,7 @@
         <v>26350</v>
       </c>
       <c r="K152" t="n">
-        <v>-18.75</v>
+        <v>-100</v>
       </c>
       <c r="L152" t="n">
         <v>70470</v>
@@ -8031,7 +8053,7 @@
         <v>26400</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.86440677966102</v>
+        <v>-100</v>
       </c>
       <c r="L153" t="n">
         <v>70400</v>
@@ -8082,7 +8104,7 @@
         <v>26400</v>
       </c>
       <c r="K154" t="n">
-        <v>-10.3448275862069</v>
+        <v>-100</v>
       </c>
       <c r="L154" t="n">
         <v>70350</v>
@@ -8133,7 +8155,7 @@
         <v>26500</v>
       </c>
       <c r="K155" t="n">
-        <v>-13.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L155" t="n">
         <v>70300</v>
@@ -8184,7 +8206,7 @@
         <v>26550</v>
       </c>
       <c r="K156" t="n">
-        <v>-28.30188679245283</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L156" t="n">
         <v>70255</v>
@@ -8235,7 +8257,7 @@
         <v>26900</v>
       </c>
       <c r="K157" t="n">
-        <v>-26.92307692307692</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L157" t="n">
         <v>70175</v>
@@ -8286,7 +8308,7 @@
         <v>27200</v>
       </c>
       <c r="K158" t="n">
-        <v>-29.41176470588236</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L158" t="n">
         <v>70125</v>
@@ -8337,7 +8359,7 @@
         <v>27250</v>
       </c>
       <c r="K159" t="n">
-        <v>-20</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L159" t="n">
         <v>70070</v>
@@ -8388,7 +8410,7 @@
         <v>27250</v>
       </c>
       <c r="K160" t="n">
-        <v>-25.58139534883721</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>70030</v>
@@ -8439,7 +8461,7 @@
         <v>27300</v>
       </c>
       <c r="K161" t="n">
-        <v>-43.58974358974359</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L161" t="n">
         <v>69990</v>
@@ -8490,7 +8512,7 @@
         <v>27400</v>
       </c>
       <c r="K162" t="n">
-        <v>-31.57894736842105</v>
+        <v>-10</v>
       </c>
       <c r="L162" t="n">
         <v>69975</v>
@@ -8541,7 +8563,7 @@
         <v>27600</v>
       </c>
       <c r="K163" t="n">
-        <v>-31.57894736842105</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L163" t="n">
         <v>69985</v>
@@ -8592,7 +8614,7 @@
         <v>27800</v>
       </c>
       <c r="K164" t="n">
-        <v>-31.57894736842105</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>69975</v>
@@ -8643,7 +8665,7 @@
         <v>28250</v>
       </c>
       <c r="K165" t="n">
-        <v>-2.222222222222222</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L165" t="n">
         <v>70020</v>
@@ -8694,7 +8716,7 @@
         <v>28400</v>
       </c>
       <c r="K166" t="n">
-        <v>4.166666666666666</v>
+        <v>60</v>
       </c>
       <c r="L166" t="n">
         <v>70075</v>
@@ -8745,7 +8767,7 @@
         <v>28600</v>
       </c>
       <c r="K167" t="n">
-        <v>11.53846153846154</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L167" t="n">
         <v>70185</v>
@@ -8796,7 +8818,7 @@
         <v>28950</v>
       </c>
       <c r="K168" t="n">
-        <v>-1.694915254237288</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L168" t="n">
         <v>70230</v>
@@ -8847,7 +8869,7 @@
         <v>29000</v>
       </c>
       <c r="K169" t="n">
-        <v>-3.333333333333333</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L169" t="n">
         <v>70275</v>
@@ -8898,7 +8920,7 @@
         <v>29200</v>
       </c>
       <c r="K170" t="n">
-        <v>8.196721311475409</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L170" t="n">
         <v>70340</v>
@@ -8949,7 +8971,7 @@
         <v>29600</v>
       </c>
       <c r="K171" t="n">
-        <v>20.58823529411764</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L171" t="n">
         <v>70450</v>
@@ -9000,7 +9022,7 @@
         <v>29900</v>
       </c>
       <c r="K172" t="n">
-        <v>32.3943661971831</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L172" t="n">
         <v>70580</v>
@@ -9051,7 +9073,7 @@
         <v>30200</v>
       </c>
       <c r="K173" t="n">
-        <v>23.68421052631579</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L173" t="n">
         <v>70660</v>
@@ -9102,7 +9124,7 @@
         <v>30200</v>
       </c>
       <c r="K174" t="n">
-        <v>23.68421052631579</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L174" t="n">
         <v>70760</v>
@@ -9153,7 +9175,7 @@
         <v>30200</v>
       </c>
       <c r="K175" t="n">
-        <v>27.02702702702703</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L175" t="n">
         <v>70815</v>
@@ -9204,7 +9226,7 @@
         <v>30200</v>
       </c>
       <c r="K176" t="n">
-        <v>26.02739726027397</v>
+        <v>12.5</v>
       </c>
       <c r="L176" t="n">
         <v>70855</v>
@@ -9255,7 +9277,7 @@
         <v>30250</v>
       </c>
       <c r="K177" t="n">
-        <v>40.29850746268657</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L177" t="n">
         <v>70880</v>
@@ -9306,7 +9328,7 @@
         <v>30300</v>
       </c>
       <c r="K178" t="n">
-        <v>35.48387096774194</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L178" t="n">
         <v>70945</v>
@@ -9357,7 +9379,7 @@
         <v>30400</v>
       </c>
       <c r="K179" t="n">
-        <v>39.68253968253968</v>
+        <v>50</v>
       </c>
       <c r="L179" t="n">
         <v>71025</v>
@@ -9408,7 +9430,7 @@
         <v>30650</v>
       </c>
       <c r="K180" t="n">
-        <v>29.41176470588236</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L180" t="n">
         <v>71060</v>
@@ -9459,7 +9481,7 @@
         <v>30650</v>
       </c>
       <c r="K181" t="n">
-        <v>31.34328358208955</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L181" t="n">
         <v>71055</v>
@@ -9510,7 +9532,7 @@
         <v>30750</v>
       </c>
       <c r="K182" t="n">
-        <v>25.37313432835821</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L182" t="n">
         <v>71010</v>
@@ -9561,7 +9583,7 @@
         <v>31100</v>
       </c>
       <c r="K183" t="n">
-        <v>8.571428571428571</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L183" t="n">
         <v>70960</v>
@@ -9612,7 +9634,7 @@
         <v>31200</v>
       </c>
       <c r="K184" t="n">
-        <v>11.76470588235294</v>
+        <v>-60</v>
       </c>
       <c r="L184" t="n">
         <v>70900</v>
@@ -9663,7 +9685,7 @@
         <v>31450</v>
       </c>
       <c r="K185" t="n">
-        <v>6.25</v>
+        <v>-28</v>
       </c>
       <c r="L185" t="n">
         <v>70865</v>
@@ -9714,7 +9736,7 @@
         <v>31700</v>
       </c>
       <c r="K186" t="n">
-        <v>-6.060606060606061</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L186" t="n">
         <v>70805</v>
@@ -9765,7 +9787,7 @@
         <v>31850</v>
       </c>
       <c r="K187" t="n">
-        <v>-7.692307692307693</v>
+        <v>-35.48387096774194</v>
       </c>
       <c r="L187" t="n">
         <v>70755</v>
@@ -9816,7 +9838,7 @@
         <v>31900</v>
       </c>
       <c r="K188" t="n">
-        <v>1.694915254237288</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L188" t="n">
         <v>70695</v>
@@ -9867,7 +9889,7 @@
         <v>32000</v>
       </c>
       <c r="K189" t="n">
-        <v>0</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L189" t="n">
         <v>70615</v>
@@ -9918,7 +9940,7 @@
         <v>32000</v>
       </c>
       <c r="K190" t="n">
-        <v>-7.142857142857142</v>
+        <v>-40.74074074074074</v>
       </c>
       <c r="L190" t="n">
         <v>70560</v>
@@ -9969,7 +9991,7 @@
         <v>32200</v>
       </c>
       <c r="K191" t="n">
-        <v>-15.38461538461539</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L191" t="n">
         <v>70525</v>
@@ -10020,7 +10042,7 @@
         <v>32450</v>
       </c>
       <c r="K192" t="n">
-        <v>-37.25490196078432</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>70475</v>
@@ -10071,7 +10093,7 @@
         <v>32850</v>
       </c>
       <c r="K193" t="n">
-        <v>-9.433962264150944</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L193" t="n">
         <v>70500</v>
@@ -10122,7 +10144,7 @@
         <v>33150</v>
       </c>
       <c r="K194" t="n">
-        <v>-18.64406779661017</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L194" t="n">
         <v>70505</v>
@@ -10173,7 +10195,7 @@
         <v>33550</v>
       </c>
       <c r="K195" t="n">
-        <v>-28.35820895522388</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L195" t="n">
         <v>70445</v>
@@ -10224,7 +10246,7 @@
         <v>33650</v>
       </c>
       <c r="K196" t="n">
-        <v>-30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>70400</v>
@@ -10275,7 +10297,7 @@
         <v>33800</v>
       </c>
       <c r="K197" t="n">
-        <v>-35.2112676056338</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L197" t="n">
         <v>70325</v>
@@ -10326,7 +10348,7 @@
         <v>34000</v>
       </c>
       <c r="K198" t="n">
-        <v>-40.54054054054054</v>
+        <v>-40</v>
       </c>
       <c r="L198" t="n">
         <v>70235</v>
@@ -10377,7 +10399,7 @@
         <v>34150</v>
       </c>
       <c r="K199" t="n">
-        <v>-46.66666666666666</v>
+        <v>-44.18604651162791</v>
       </c>
       <c r="L199" t="n">
         <v>70140</v>
@@ -10428,7 +10450,7 @@
         <v>34550</v>
       </c>
       <c r="K200" t="n">
-        <v>-48.71794871794872</v>
+        <v>-65.95744680851064</v>
       </c>
       <c r="L200" t="n">
         <v>70005</v>
@@ -10479,7 +10501,7 @@
         <v>34750</v>
       </c>
       <c r="K201" t="n">
-        <v>-51.21951219512195</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L201" t="n">
         <v>69830</v>
@@ -10530,7 +10552,7 @@
         <v>34800</v>
       </c>
       <c r="K202" t="n">
-        <v>-48.14814814814815</v>
+        <v>-94.87179487179486</v>
       </c>
       <c r="L202" t="n">
         <v>69685</v>
@@ -10581,7 +10603,7 @@
         <v>34850</v>
       </c>
       <c r="K203" t="n">
-        <v>-44</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L203" t="n">
         <v>69495</v>
@@ -10632,7 +10654,7 @@
         <v>35000</v>
       </c>
       <c r="K204" t="n">
-        <v>-36.84210526315789</v>
+        <v>-72.41379310344827</v>
       </c>
       <c r="L204" t="n">
         <v>69350</v>
@@ -10683,7 +10705,7 @@
         <v>35050</v>
       </c>
       <c r="K205" t="n">
-        <v>-47.22222222222222</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L205" t="n">
         <v>69240</v>
@@ -10734,7 +10756,7 @@
         <v>35050</v>
       </c>
       <c r="K206" t="n">
-        <v>-43.28358208955223</v>
+        <v>-68</v>
       </c>
       <c r="L206" t="n">
         <v>69140</v>
@@ -10785,7 +10807,7 @@
         <v>35100</v>
       </c>
       <c r="K207" t="n">
-        <v>-47.69230769230769</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L207" t="n">
         <v>69060</v>
@@ -10836,7 +10858,7 @@
         <v>36050</v>
       </c>
       <c r="K208" t="n">
-        <v>-59.03614457831326</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L208" t="n">
         <v>68905</v>
@@ -10887,7 +10909,7 @@
         <v>36500</v>
       </c>
       <c r="K209" t="n">
-        <v>-42.22222222222222</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L209" t="n">
         <v>68810</v>
@@ -10938,7 +10960,7 @@
         <v>36850</v>
       </c>
       <c r="K210" t="n">
-        <v>-46.39175257731959</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L210" t="n">
         <v>68720</v>
@@ -10989,7 +11011,7 @@
         <v>36950</v>
       </c>
       <c r="K211" t="n">
-        <v>-53.68421052631579</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="L211" t="n">
         <v>68640</v>
@@ -11040,7 +11062,7 @@
         <v>37100</v>
       </c>
       <c r="K212" t="n">
-        <v>-46.23655913978494</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L212" t="n">
         <v>68570</v>
@@ -11091,7 +11113,7 @@
         <v>37100</v>
       </c>
       <c r="K213" t="n">
-        <v>-60</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L213" t="n">
         <v>68505</v>
@@ -11142,7 +11164,7 @@
         <v>37250</v>
       </c>
       <c r="K214" t="n">
-        <v>-58.53658536585365</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L214" t="n">
         <v>68410</v>
@@ -11193,7 +11215,7 @@
         <v>37250</v>
       </c>
       <c r="K215" t="n">
-        <v>-54.05405405405406</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L215" t="n">
         <v>68320</v>
@@ -11244,7 +11266,7 @@
         <v>37300</v>
       </c>
       <c r="K216" t="n">
-        <v>-50.68493150684932</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L216" t="n">
         <v>68235</v>
@@ -11295,7 +11317,7 @@
         <v>37650</v>
       </c>
       <c r="K217" t="n">
-        <v>-35.06493506493506</v>
+        <v>25</v>
       </c>
       <c r="L217" t="n">
         <v>68180</v>
@@ -11346,7 +11368,7 @@
         <v>37750</v>
       </c>
       <c r="K218" t="n">
-        <v>-33.33333333333333</v>
+        <v>-12</v>
       </c>
       <c r="L218" t="n">
         <v>68210</v>
@@ -11397,7 +11419,7 @@
         <v>38000</v>
       </c>
       <c r="K219" t="n">
-        <v>-35.06493506493506</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L219" t="n">
         <v>68170</v>
@@ -11448,7 +11470,7 @@
         <v>38250</v>
       </c>
       <c r="K220" t="n">
-        <v>-32.43243243243244</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L220" t="n">
         <v>68140</v>
@@ -11499,7 +11521,7 @@
         <v>38650</v>
       </c>
       <c r="K221" t="n">
-        <v>-15.38461538461539</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="L221" t="n">
         <v>68160</v>
@@ -11550,7 +11572,7 @@
         <v>38750</v>
       </c>
       <c r="K222" t="n">
-        <v>-18.9873417721519</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L222" t="n">
         <v>68155</v>
@@ -11601,7 +11623,7 @@
         <v>39100</v>
       </c>
       <c r="K223" t="n">
-        <v>-24.70588235294118</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L223" t="n">
         <v>68115</v>
@@ -11652,7 +11674,7 @@
         <v>39100</v>
       </c>
       <c r="K224" t="n">
-        <v>-29.26829268292683</v>
+        <v>-13.51351351351351</v>
       </c>
       <c r="L224" t="n">
         <v>68090</v>
@@ -11703,7 +11725,7 @@
         <v>39250</v>
       </c>
       <c r="K225" t="n">
-        <v>-23.80952380952381</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L225" t="n">
         <v>68080</v>
@@ -11754,7 +11776,7 @@
         <v>39250</v>
       </c>
       <c r="K226" t="n">
-        <v>-23.80952380952381</v>
+        <v>-31.25</v>
       </c>
       <c r="L226" t="n">
         <v>68065</v>
@@ -11805,7 +11827,7 @@
         <v>39250</v>
       </c>
       <c r="K227" t="n">
-        <v>-25.30120481927711</v>
+        <v>-26.66666666666667</v>
       </c>
       <c r="L227" t="n">
         <v>68015</v>
@@ -11856,7 +11878,7 @@
         <v>39300</v>
       </c>
       <c r="K228" t="n">
-        <v>-1.538461538461539</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L228" t="n">
         <v>67980</v>
@@ -11907,7 +11929,7 @@
         <v>39300</v>
       </c>
       <c r="K229" t="n">
-        <v>-17.85714285714286</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L229" t="n">
         <v>67970</v>
@@ -11958,7 +11980,7 @@
         <v>39650</v>
       </c>
       <c r="K230" t="n">
-        <v>-17.85714285714286</v>
+        <v>-60</v>
       </c>
       <c r="L230" t="n">
         <v>67950</v>
@@ -12009,7 +12031,7 @@
         <v>39850</v>
       </c>
       <c r="K231" t="n">
-        <v>-6.896551724137931</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L231" t="n">
         <v>67910</v>
@@ -12060,7 +12082,7 @@
         <v>40150</v>
       </c>
       <c r="K232" t="n">
-        <v>-21.31147540983606</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L232" t="n">
         <v>67850</v>
@@ -12111,7 +12133,7 @@
         <v>40150</v>
       </c>
       <c r="K233" t="n">
-        <v>-21.31147540983606</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L233" t="n">
         <v>67825</v>
@@ -12162,7 +12184,7 @@
         <v>40150</v>
       </c>
       <c r="K234" t="n">
-        <v>-17.24137931034483</v>
+        <v>-44.44444444444444</v>
       </c>
       <c r="L234" t="n">
         <v>67800</v>
@@ -12213,7 +12235,7 @@
         <v>40300</v>
       </c>
       <c r="K235" t="n">
-        <v>-21.31147540983606</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L235" t="n">
         <v>67745</v>
@@ -12264,7 +12286,7 @@
         <v>40700</v>
       </c>
       <c r="K236" t="n">
-        <v>-32.35294117647059</v>
+        <v>-65.51724137931035</v>
       </c>
       <c r="L236" t="n">
         <v>67650</v>
@@ -12315,7 +12337,7 @@
         <v>40800</v>
       </c>
       <c r="K237" t="n">
-        <v>-42.85714285714285</v>
+        <v>-60</v>
       </c>
       <c r="L237" t="n">
         <v>67565</v>
@@ -12366,7 +12388,7 @@
         <v>41350</v>
       </c>
       <c r="K238" t="n">
-        <v>-19.44444444444445</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L238" t="n">
         <v>67530</v>
@@ -12417,7 +12439,7 @@
         <v>42100</v>
       </c>
       <c r="K239" t="n">
-        <v>-29.26829268292683</v>
+        <v>-30.61224489795918</v>
       </c>
       <c r="L239" t="n">
         <v>67420</v>
@@ -12468,7 +12490,7 @@
         <v>42500</v>
       </c>
       <c r="K240" t="n">
-        <v>-12.94117647058824</v>
+        <v>-20.75471698113208</v>
       </c>
       <c r="L240" t="n">
         <v>67385</v>
@@ -12519,7 +12541,7 @@
         <v>42500</v>
       </c>
       <c r="K241" t="n">
-        <v>-24.67532467532467</v>
+        <v>-10.63829787234043</v>
       </c>
       <c r="L241" t="n">
         <v>67330</v>
@@ -12570,7 +12592,7 @@
         <v>42950</v>
       </c>
       <c r="K242" t="n">
-        <v>-30.95238095238095</v>
+        <v>-25</v>
       </c>
       <c r="L242" t="n">
         <v>67260</v>
@@ -12621,7 +12643,7 @@
         <v>43200</v>
       </c>
       <c r="K243" t="n">
-        <v>-17.07317073170732</v>
+        <v>-14.75409836065574</v>
       </c>
       <c r="L243" t="n">
         <v>67215</v>
@@ -12672,7 +12694,7 @@
         <v>43600</v>
       </c>
       <c r="K244" t="n">
-        <v>-24.44444444444444</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L244" t="n">
         <v>67130</v>
@@ -12723,7 +12745,7 @@
         <v>43600</v>
       </c>
       <c r="K245" t="n">
-        <v>-28.73563218390805</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L245" t="n">
         <v>67060</v>
@@ -12774,7 +12796,7 @@
         <v>43900</v>
       </c>
       <c r="K246" t="n">
-        <v>-20.43010752688172</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L246" t="n">
         <v>67060</v>
@@ -12825,7 +12847,7 @@
         <v>43950</v>
       </c>
       <c r="K247" t="n">
-        <v>-21.27659574468085</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L247" t="n">
         <v>67045</v>
@@ -12876,7 +12898,7 @@
         <v>44200</v>
       </c>
       <c r="K248" t="n">
-        <v>-26.53061224489796</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L248" t="n">
         <v>66950</v>
@@ -12927,7 +12949,7 @@
         <v>44450</v>
       </c>
       <c r="K249" t="n">
-        <v>-20.38834951456311</v>
+        <v>-17.94871794871795</v>
       </c>
       <c r="L249" t="n">
         <v>66955</v>
@@ -12978,7 +13000,7 @@
         <v>44550</v>
       </c>
       <c r="K250" t="n">
-        <v>-16.3265306122449</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L250" t="n">
         <v>66910</v>
@@ -13029,7 +13051,7 @@
         <v>45000</v>
       </c>
       <c r="K251" t="n">
-        <v>-28.15533980582524</v>
+        <v>-21.95121951219512</v>
       </c>
       <c r="L251" t="n">
         <v>66820</v>
@@ -13080,7 +13102,7 @@
         <v>45000</v>
       </c>
       <c r="K252" t="n">
-        <v>-23.71134020618556</v>
+        <v>-38.88888888888889</v>
       </c>
       <c r="L252" t="n">
         <v>66775</v>
@@ -13131,7 +13153,7 @@
         <v>45200</v>
       </c>
       <c r="K253" t="n">
-        <v>-18.81188118811881</v>
+        <v>-6.25</v>
       </c>
       <c r="L253" t="n">
         <v>66725</v>
@@ -13182,7 +13204,7 @@
         <v>45300</v>
       </c>
       <c r="K254" t="n">
-        <v>-20.38834951456311</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L254" t="n">
         <v>66705</v>
@@ -13233,7 +13255,7 @@
         <v>45450</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.5631067961165</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L255" t="n">
         <v>66700</v>
@@ -13284,7 +13306,7 @@
         <v>45650</v>
       </c>
       <c r="K256" t="n">
-        <v>-3.03030303030303</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L256" t="n">
         <v>66685</v>
@@ -13335,7 +13357,7 @@
         <v>45900</v>
       </c>
       <c r="K257" t="n">
-        <v>-9.803921568627452</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L257" t="n">
         <v>66650</v>
@@ -13386,7 +13408,7 @@
         <v>45900</v>
       </c>
       <c r="K258" t="n">
-        <v>-23.07692307692308</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L258" t="n">
         <v>66640</v>
@@ -13437,7 +13459,7 @@
         <v>46200</v>
       </c>
       <c r="K259" t="n">
-        <v>-14.63414634146341</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L259" t="n">
         <v>66575</v>
@@ -13488,7 +13510,7 @@
         <v>46250</v>
       </c>
       <c r="K260" t="n">
-        <v>-28</v>
+        <v>-12</v>
       </c>
       <c r="L260" t="n">
         <v>66515</v>
@@ -13539,7 +13561,7 @@
         <v>46650</v>
       </c>
       <c r="K261" t="n">
-        <v>-15.66265060240964</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L261" t="n">
         <v>66540</v>
@@ -13590,7 +13612,7 @@
         <v>47050</v>
       </c>
       <c r="K262" t="n">
-        <v>-14.63414634146341</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L262" t="n">
         <v>66525</v>
@@ -13641,7 +13663,7 @@
         <v>47100</v>
       </c>
       <c r="K263" t="n">
-        <v>-20.51282051282051</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L263" t="n">
         <v>66495</v>
@@ -13692,7 +13714,7 @@
         <v>47150</v>
       </c>
       <c r="K264" t="n">
-        <v>-9.859154929577464</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L264" t="n">
         <v>66480</v>
@@ -13743,7 +13765,7 @@
         <v>47650</v>
       </c>
       <c r="K265" t="n">
-        <v>-20.98765432098765</v>
+        <v>-50</v>
       </c>
       <c r="L265" t="n">
         <v>66400</v>
@@ -13794,7 +13816,7 @@
         <v>48050</v>
       </c>
       <c r="K266" t="n">
-        <v>-18.07228915662651</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L266" t="n">
         <v>66340</v>
@@ -13845,7 +13867,7 @@
         <v>48650</v>
       </c>
       <c r="K267" t="n">
-        <v>-2.127659574468085</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L267" t="n">
         <v>66365</v>
@@ -13896,7 +13918,7 @@
         <v>49450</v>
       </c>
       <c r="K268" t="n">
-        <v>-12.38095238095238</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L268" t="n">
         <v>66310</v>
@@ -13947,7 +13969,7 @@
         <v>49600</v>
       </c>
       <c r="K269" t="n">
-        <v>-20.38834951456311</v>
+        <v>-10.44776119402985</v>
       </c>
       <c r="L269" t="n">
         <v>66270</v>
@@ -13998,7 +14020,7 @@
         <v>49700</v>
       </c>
       <c r="K270" t="n">
-        <v>-20.38834951456311</v>
+        <v>-27.86885245901639</v>
       </c>
       <c r="L270" t="n">
         <v>66225</v>
@@ -14049,7 +14071,7 @@
         <v>50150</v>
       </c>
       <c r="K271" t="n">
-        <v>-2.912621359223301</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>66185</v>
@@ -14100,7 +14122,7 @@
         <v>50400</v>
       </c>
       <c r="K272" t="n">
-        <v>1.851851851851852</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="L272" t="n">
         <v>66210</v>
@@ -14151,7 +14173,7 @@
         <v>50900</v>
       </c>
       <c r="K273" t="n">
-        <v>7.017543859649122</v>
+        <v>17.33333333333334</v>
       </c>
       <c r="L273" t="n">
         <v>66280</v>
@@ -14202,7 +14224,7 @@
         <v>51100</v>
       </c>
       <c r="K274" t="n">
-        <v>12.06896551724138</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L274" t="n">
         <v>66365</v>
@@ -14253,7 +14275,7 @@
         <v>51600</v>
       </c>
       <c r="K275" t="n">
-        <v>0.8130081300813009</v>
+        <v>12.67605633802817</v>
       </c>
       <c r="L275" t="n">
         <v>66450</v>
@@ -14304,7 +14326,7 @@
         <v>51600</v>
       </c>
       <c r="K276" t="n">
-        <v>-2.521008403361344</v>
+        <v>-5.084745762711865</v>
       </c>
       <c r="L276" t="n">
         <v>66495</v>
@@ -14355,7 +14377,7 @@
         <v>52100</v>
       </c>
       <c r="K277" t="n">
-        <v>-6.451612903225806</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L277" t="n">
         <v>66430</v>
@@ -14406,7 +14428,7 @@
         <v>53000</v>
       </c>
       <c r="K278" t="n">
-        <v>7.042253521126761</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L278" t="n">
         <v>66535</v>
@@ -14457,7 +14479,7 @@
         <v>53200</v>
       </c>
       <c r="K279" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L279" t="n">
         <v>66675</v>
@@ -14508,7 +14530,7 @@
         <v>53200</v>
       </c>
       <c r="K280" t="n">
-        <v>15.10791366906475</v>
+        <v>34.42622950819672</v>
       </c>
       <c r="L280" t="n">
         <v>66825</v>
@@ -14559,7 +14581,7 @@
         <v>53200</v>
       </c>
       <c r="K281" t="n">
-        <v>9.923664122137405</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L281" t="n">
         <v>66930</v>
@@ -14610,7 +14632,7 @@
         <v>53400</v>
       </c>
       <c r="K282" t="n">
-        <v>13.38582677165354</v>
+        <v>4</v>
       </c>
       <c r="L282" t="n">
         <v>66990</v>
@@ -14661,7 +14683,7 @@
         <v>53600</v>
       </c>
       <c r="K283" t="n">
-        <v>15.38461538461539</v>
+        <v>4</v>
       </c>
       <c r="L283" t="n">
         <v>67020</v>
@@ -14712,7 +14734,7 @@
         <v>54400</v>
       </c>
       <c r="K284" t="n">
-        <v>2.068965517241379</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L284" t="n">
         <v>66950</v>
@@ -14763,7 +14785,7 @@
         <v>54450</v>
       </c>
       <c r="K285" t="n">
-        <v>10.29411764705882</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L285" t="n">
         <v>66935</v>
@@ -14814,7 +14836,7 @@
         <v>55100</v>
       </c>
       <c r="K286" t="n">
-        <v>-4.964539007092199</v>
+        <v>-10</v>
       </c>
       <c r="L286" t="n">
         <v>66855</v>
@@ -14865,7 +14887,7 @@
         <v>55150</v>
       </c>
       <c r="K287" t="n">
-        <v>-15.38461538461539</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="L287" t="n">
         <v>66820</v>
@@ -14916,7 +14938,7 @@
         <v>55450</v>
       </c>
       <c r="K288" t="n">
-        <v>-8.333333333333332</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L288" t="n">
         <v>66665</v>
@@ -14967,7 +14989,7 @@
         <v>56200</v>
       </c>
       <c r="K289" t="n">
-        <v>6.060606060606061</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>66565</v>
@@ -15018,7 +15040,7 @@
         <v>56450</v>
       </c>
       <c r="K290" t="n">
-        <v>3.703703703703703</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L290" t="n">
         <v>66440</v>
@@ -15069,7 +15091,7 @@
         <v>56450</v>
       </c>
       <c r="K291" t="n">
-        <v>-3.174603174603174</v>
+        <v>-34.42622950819672</v>
       </c>
       <c r="L291" t="n">
         <v>66315</v>
@@ -15120,7 +15142,7 @@
         <v>56550</v>
       </c>
       <c r="K292" t="n">
-        <v>-8.943089430894309</v>
+        <v>-45.76271186440678</v>
       </c>
       <c r="L292" t="n">
         <v>66200</v>
@@ -15171,7 +15193,7 @@
         <v>56550</v>
       </c>
       <c r="K293" t="n">
-        <v>-18.58407079646018</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L293" t="n">
         <v>66065</v>
@@ -15222,7 +15244,7 @@
         <v>56550</v>
       </c>
       <c r="K294" t="n">
-        <v>-22.93577981651376</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L294" t="n">
         <v>66010</v>
@@ -15273,7 +15295,7 @@
         <v>56550</v>
       </c>
       <c r="K295" t="n">
-        <v>-15.15151515151515</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L295" t="n">
         <v>65950</v>
@@ -15324,7 +15346,7 @@
         <v>56750</v>
       </c>
       <c r="K296" t="n">
-        <v>-18.44660194174757</v>
+        <v>-6.25</v>
       </c>
       <c r="L296" t="n">
         <v>65935</v>
@@ -15375,7 +15397,7 @@
         <v>56800</v>
       </c>
       <c r="K297" t="n">
-        <v>-10.63829787234043</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L297" t="n">
         <v>65920</v>
@@ -15426,7 +15448,7 @@
         <v>57250</v>
       </c>
       <c r="K298" t="n">
-        <v>-22.35294117647059</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L298" t="n">
         <v>65980</v>
@@ -15477,7 +15499,7 @@
         <v>57250</v>
       </c>
       <c r="K299" t="n">
-        <v>-28.39506172839506</v>
+        <v>12.5</v>
       </c>
       <c r="L299" t="n">
         <v>65965</v>
@@ -15528,7 +15550,7 @@
         <v>57300</v>
       </c>
       <c r="K300" t="n">
-        <v>-26.82926829268293</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L300" t="n">
         <v>65980</v>
@@ -15579,7 +15601,7 @@
         <v>57400</v>
       </c>
       <c r="K301" t="n">
-        <v>-23.80952380952381</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L301" t="n">
         <v>66005</v>
@@ -15630,7 +15652,7 @@
         <v>57400</v>
       </c>
       <c r="K302" t="n">
-        <v>-20</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L302" t="n">
         <v>66040</v>
@@ -15681,7 +15703,7 @@
         <v>57550</v>
       </c>
       <c r="K303" t="n">
-        <v>-21.51898734177215</v>
+        <v>50</v>
       </c>
       <c r="L303" t="n">
         <v>66090</v>
@@ -15732,7 +15754,7 @@
         <v>57550</v>
       </c>
       <c r="K304" t="n">
-        <v>-1.587301587301587</v>
+        <v>50</v>
       </c>
       <c r="L304" t="n">
         <v>66140</v>
@@ -15783,7 +15805,7 @@
         <v>57700</v>
       </c>
       <c r="K305" t="n">
-        <v>-7.692307692307693</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L305" t="n">
         <v>66175</v>
@@ -15834,7 +15856,7 @@
         <v>57700</v>
       </c>
       <c r="K306" t="n">
-        <v>15.38461538461539</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L306" t="n">
         <v>66230</v>
@@ -15885,7 +15907,7 @@
         <v>57850</v>
       </c>
       <c r="K307" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L307" t="n">
         <v>66305</v>
@@ -15936,7 +15958,7 @@
         <v>58200</v>
       </c>
       <c r="K308" t="n">
-        <v>45.45454545454545</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L308" t="n">
         <v>66370</v>
@@ -15987,7 +16009,7 @@
         <v>58300</v>
       </c>
       <c r="K309" t="n">
-        <v>28.57142857142857</v>
+        <v>70</v>
       </c>
       <c r="L309" t="n">
         <v>66445</v>
@@ -16038,7 +16060,7 @@
         <v>58300</v>
       </c>
       <c r="K310" t="n">
-        <v>45.94594594594595</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L310" t="n">
         <v>66515</v>
@@ -16089,7 +16111,7 @@
         <v>58450</v>
       </c>
       <c r="K311" t="n">
-        <v>35</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L311" t="n">
         <v>66560</v>
@@ -16140,7 +16162,7 @@
         <v>58700</v>
       </c>
       <c r="K312" t="n">
-        <v>48.83720930232558</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L312" t="n">
         <v>66630</v>
@@ -16191,7 +16213,7 @@
         <v>59000</v>
       </c>
       <c r="K313" t="n">
-        <v>55.10204081632652</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L313" t="n">
         <v>66715</v>
@@ -16242,7 +16264,7 @@
         <v>59100</v>
       </c>
       <c r="K314" t="n">
-        <v>56.86274509803921</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L314" t="n">
         <v>66810</v>
@@ -16293,7 +16315,7 @@
         <v>59550</v>
       </c>
       <c r="K315" t="n">
-        <v>33.33333333333333</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L315" t="n">
         <v>66875</v>
@@ -16344,7 +16366,7 @@
         <v>60000</v>
       </c>
       <c r="K316" t="n">
-        <v>50.76923076923077</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L316" t="n">
         <v>66985</v>
@@ -16395,7 +16417,7 @@
         <v>60400</v>
       </c>
       <c r="K317" t="n">
-        <v>36.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L317" t="n">
         <v>67040</v>
@@ -16446,7 +16468,7 @@
         <v>60700</v>
       </c>
       <c r="K318" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L318" t="n">
         <v>67090</v>
@@ -16497,7 +16519,7 @@
         <v>61000</v>
       </c>
       <c r="K319" t="n">
-        <v>22.66666666666666</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L319" t="n">
         <v>67100</v>
@@ -16548,7 +16570,7 @@
         <v>61050</v>
       </c>
       <c r="K320" t="n">
-        <v>20</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L320" t="n">
         <v>67105</v>
@@ -16599,7 +16621,7 @@
         <v>61400</v>
       </c>
       <c r="K321" t="n">
-        <v>25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L321" t="n">
         <v>67160</v>
@@ -16650,7 +16672,7 @@
         <v>61400</v>
       </c>
       <c r="K322" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L322" t="n">
         <v>67190</v>
@@ -16701,7 +16723,7 @@
         <v>61400</v>
       </c>
       <c r="K323" t="n">
-        <v>22.07792207792208</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L323" t="n">
         <v>67190</v>
@@ -16752,7 +16774,7 @@
         <v>61400</v>
       </c>
       <c r="K324" t="n">
-        <v>22.07792207792208</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L324" t="n">
         <v>67180</v>
@@ -16803,7 +16825,7 @@
         <v>61400</v>
       </c>
       <c r="K325" t="n">
-        <v>27.02702702702703</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L325" t="n">
         <v>67215</v>
@@ -16854,7 +16876,7 @@
         <v>61400</v>
       </c>
       <c r="K326" t="n">
-        <v>27.02702702702703</v>
+        <v>30</v>
       </c>
       <c r="L326" t="n">
         <v>67205</v>
@@ -16905,7 +16927,7 @@
         <v>61700</v>
       </c>
       <c r="K327" t="n">
-        <v>14.28571428571428</v>
+        <v>-30</v>
       </c>
       <c r="L327" t="n">
         <v>67205</v>
@@ -16956,7 +16978,7 @@
         <v>61750</v>
       </c>
       <c r="K328" t="n">
-        <v>4.225352112676056</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L328" t="n">
         <v>67170</v>
@@ -17007,7 +17029,7 @@
         <v>61750</v>
       </c>
       <c r="K329" t="n">
-        <v>1.449275362318841</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>67165</v>
@@ -17058,7 +17080,7 @@
         <v>61750</v>
       </c>
       <c r="K330" t="n">
-        <v>1.449275362318841</v>
+        <v>-100</v>
       </c>
       <c r="L330" t="n">
         <v>67165</v>
@@ -17109,7 +17131,7 @@
         <v>62000</v>
       </c>
       <c r="K331" t="n">
-        <v>12.67605633802817</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L331" t="n">
         <v>67155</v>
@@ -17160,7 +17182,7 @@
         <v>62300</v>
       </c>
       <c r="K332" t="n">
-        <v>13.88888888888889</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L332" t="n">
         <v>67175</v>
@@ -17211,7 +17233,7 @@
         <v>62800</v>
       </c>
       <c r="K333" t="n">
-        <v>-7.894736842105263</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L333" t="n">
         <v>67145</v>
@@ -17262,7 +17284,7 @@
         <v>63000</v>
       </c>
       <c r="K334" t="n">
-        <v>-5.128205128205128</v>
+        <v>-6.25</v>
       </c>
       <c r="L334" t="n">
         <v>67135</v>
@@ -17313,7 +17335,7 @@
         <v>63450</v>
       </c>
       <c r="K335" t="n">
-        <v>-5.128205128205128</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L335" t="n">
         <v>67080</v>
@@ -17364,7 +17386,7 @@
         <v>63450</v>
       </c>
       <c r="K336" t="n">
-        <v>-18.84057971014493</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L336" t="n">
         <v>67025</v>
@@ -17415,7 +17437,7 @@
         <v>63550</v>
       </c>
       <c r="K337" t="n">
-        <v>-4.761904761904762</v>
+        <v>-5.555555555555555</v>
       </c>
       <c r="L337" t="n">
         <v>67010</v>
@@ -17466,7 +17488,7 @@
         <v>63800</v>
       </c>
       <c r="K338" t="n">
-        <v>-22.58064516129032</v>
+        <v>-17.07317073170732</v>
       </c>
       <c r="L338" t="n">
         <v>66975</v>
@@ -17517,7 +17539,7 @@
         <v>63900</v>
       </c>
       <c r="K339" t="n">
-        <v>-10.3448275862069</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L339" t="n">
         <v>66950</v>
@@ -17568,7 +17590,7 @@
         <v>63950</v>
       </c>
       <c r="K340" t="n">
-        <v>-10.3448275862069</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L340" t="n">
         <v>66920</v>
@@ -17619,7 +17641,7 @@
         <v>64000</v>
       </c>
       <c r="K341" t="n">
-        <v>-26.92307692307692</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L341" t="n">
         <v>66860</v>
@@ -17670,7 +17692,7 @@
         <v>64350</v>
       </c>
       <c r="K342" t="n">
-        <v>-11.86440677966102</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L342" t="n">
         <v>66805</v>
@@ -17721,7 +17743,7 @@
         <v>64850</v>
       </c>
       <c r="K343" t="n">
-        <v>-24.63768115942029</v>
+        <v>-40.54054054054054</v>
       </c>
       <c r="L343" t="n">
         <v>66750</v>
@@ -17772,7 +17794,7 @@
         <v>64900</v>
       </c>
       <c r="K344" t="n">
-        <v>-25.71428571428571</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L344" t="n">
         <v>66670</v>
@@ -17823,7 +17845,7 @@
         <v>64900</v>
       </c>
       <c r="K345" t="n">
-        <v>-25.71428571428571</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L345" t="n">
         <v>66635</v>
@@ -17874,7 +17896,7 @@
         <v>64900</v>
       </c>
       <c r="K346" t="n">
-        <v>-25.71428571428571</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L346" t="n">
         <v>66600</v>
@@ -17925,7 +17947,7 @@
         <v>64900</v>
       </c>
       <c r="K347" t="n">
-        <v>-18.75</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L347" t="n">
         <v>66555</v>
@@ -17976,7 +17998,7 @@
         <v>64900</v>
       </c>
       <c r="K348" t="n">
-        <v>-17.46031746031746</v>
+        <v>-30</v>
       </c>
       <c r="L348" t="n">
         <v>66535</v>
@@ -18027,7 +18049,7 @@
         <v>65000</v>
       </c>
       <c r="K349" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L349" t="n">
         <v>66495</v>
@@ -18078,7 +18100,7 @@
         <v>65400</v>
       </c>
       <c r="K350" t="n">
-        <v>-6.849315068493151</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L350" t="n">
         <v>66500</v>
@@ -18129,7 +18151,7 @@
         <v>66500</v>
       </c>
       <c r="K351" t="n">
-        <v>-35.55555555555556</v>
+        <v>-62.7906976744186</v>
       </c>
       <c r="L351" t="n">
         <v>66400</v>
@@ -18180,7 +18202,7 @@
         <v>67000</v>
       </c>
       <c r="K352" t="n">
-        <v>-29.78723404255319</v>
+        <v>-16.27906976744186</v>
       </c>
       <c r="L352" t="n">
         <v>66315</v>
@@ -18231,7 +18253,7 @@
         <v>67650</v>
       </c>
       <c r="K353" t="n">
-        <v>-31.95876288659793</v>
+        <v>-34.54545454545455</v>
       </c>
       <c r="L353" t="n">
         <v>66215</v>
@@ -18282,7 +18304,7 @@
         <v>67900</v>
       </c>
       <c r="K354" t="n">
-        <v>-40.81632653061224</v>
+        <v>-40</v>
       </c>
       <c r="L354" t="n">
         <v>66095</v>
@@ -18333,7 +18355,7 @@
         <v>68650</v>
       </c>
       <c r="K355" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12</v>
       </c>
       <c r="L355" t="n">
         <v>66050</v>
@@ -18384,7 +18406,7 @@
         <v>68650</v>
       </c>
       <c r="K356" t="n">
-        <v>-15.38461538461539</v>
+        <v>-12</v>
       </c>
       <c r="L356" t="n">
         <v>66005</v>
@@ -18435,7 +18457,7 @@
         <v>68850</v>
       </c>
       <c r="K357" t="n">
-        <v>-13.20754716981132</v>
+        <v>-6.329113924050633</v>
       </c>
       <c r="L357" t="n">
         <v>65980</v>
@@ -18486,7 +18508,7 @@
         <v>68950</v>
       </c>
       <c r="K358" t="n">
-        <v>-6.796116504854369</v>
+        <v>-1.265822784810127</v>
       </c>
       <c r="L358" t="n">
         <v>65965</v>

--- a/BackTest/2019-10-18 BackTest XMR.xlsx
+++ b/BackTest/2019-10-18 BackTest XMR.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -9341,13 +9341,17 @@
         <v>67805.83333333333</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>66650</v>
+      </c>
+      <c r="K256" t="n">
+        <v>66650</v>
+      </c>
       <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
@@ -9376,14 +9380,22 @@
         <v>67752.5</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>66850</v>
+      </c>
+      <c r="K257" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9417,8 +9429,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9446,14 +9464,22 @@
         <v>67650</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>66600</v>
+      </c>
+      <c r="K259" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9481,14 +9507,22 @@
         <v>67603.33333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>66300</v>
+      </c>
+      <c r="K260" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9516,14 +9550,22 @@
         <v>67566.66666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>66250</v>
+      </c>
+      <c r="K261" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9557,8 +9599,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +9634,22 @@
         <v>67480</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>66250</v>
+      </c>
+      <c r="K263" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9621,14 +9677,22 @@
         <v>67435.83333333333</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>66300</v>
+      </c>
+      <c r="K264" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9656,14 +9720,22 @@
         <v>67384.16666666667</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>66350</v>
+      </c>
+      <c r="K265" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9691,14 +9763,22 @@
         <v>67339.16666666667</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>65850</v>
+      </c>
+      <c r="K266" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9726,14 +9806,22 @@
         <v>67303.33333333333</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>66250</v>
+      </c>
+      <c r="K267" t="n">
+        <v>66650</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9767,12 +9855,16 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>66050</v>
+        <v>66850</v>
       </c>
       <c r="K268" t="n">
-        <v>66050</v>
-      </c>
-      <c r="L268" t="inlineStr"/>
+        <v>66650</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9800,18 +9892,20 @@
         <v>67226.66666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>66050</v>
+      </c>
       <c r="K269" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M269" t="n">
@@ -9841,14 +9935,16 @@
         <v>67187.5</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>65900</v>
+      </c>
       <c r="K270" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -9888,10 +9984,10 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
-        <v>66250</v>
+        <v>65800</v>
       </c>
       <c r="K271" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -9925,16 +10021,14 @@
         <v>67129.16666666667</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>66500</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -9974,10 +10068,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>66750</v>
+        <v>66500</v>
       </c>
       <c r="K273" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -10011,16 +10105,14 @@
         <v>67095</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>67000</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -10061,7 +10153,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -10102,7 +10194,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -10143,7 +10235,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -10184,7 +10276,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -10225,7 +10317,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -10266,7 +10358,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -10307,7 +10399,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -10348,7 +10440,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -10389,7 +10481,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -10430,7 +10522,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -10471,7 +10563,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -10512,7 +10604,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -10553,7 +10645,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -10594,7 +10686,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -10635,7 +10727,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -10669,16 +10761,14 @@
         <v>66716.66666666667</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>66050</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -10712,16 +10802,14 @@
         <v>66686.66666666667</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>66250</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -10755,16 +10843,14 @@
         <v>66660</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>65950</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -10798,16 +10884,14 @@
         <v>66633.33333333333</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>65950</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -10841,16 +10925,14 @@
         <v>66606.66666666667</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>65950</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -10884,16 +10966,14 @@
         <v>66582.5</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>65950</v>
-      </c>
+      <c r="J295" t="inlineStr"/>
       <c r="K295" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -10927,16 +11007,14 @@
         <v>66561.66666666667</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>65750</v>
-      </c>
+      <c r="J296" t="inlineStr"/>
       <c r="K296" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -10970,16 +11048,14 @@
         <v>66538.33333333333</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -11013,16 +11089,14 @@
         <v>66513.33333333333</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>66150</v>
-      </c>
+      <c r="J298" t="inlineStr"/>
       <c r="K298" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -11056,16 +11130,14 @@
         <v>66500.83333333333</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>66150</v>
-      </c>
+      <c r="J299" t="inlineStr"/>
       <c r="K299" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -11099,16 +11171,14 @@
         <v>66482.5</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>66200</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -11142,16 +11212,14 @@
         <v>66465.83333333333</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>66300</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11185,16 +11253,14 @@
         <v>66456.66666666667</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>66300</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11228,16 +11294,14 @@
         <v>66445.83333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>66450</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11271,16 +11335,14 @@
         <v>66441.66666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>66450</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11314,16 +11376,14 @@
         <v>66435</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>66300</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11357,16 +11417,14 @@
         <v>66423.33333333333</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>66300</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11400,16 +11458,14 @@
         <v>66415</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>66450</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11443,16 +11499,14 @@
         <v>66416.66666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
         <v>66650</v>
-      </c>
-      <c r="K308" t="n">
-        <v>66050</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11486,16 +11540,14 @@
         <v>66415.83333333333</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>66800</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11529,16 +11581,14 @@
         <v>66416.66666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>66900</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11572,16 +11622,14 @@
         <v>66422.5</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>66750</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11615,16 +11663,14 @@
         <v>66432.5</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>67000</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11665,7 +11711,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11706,7 +11752,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11747,7 +11793,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11788,7 +11834,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11829,7 +11875,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11870,7 +11916,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11911,7 +11957,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11952,7 +11998,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11993,7 +12039,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -12034,7 +12080,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -12075,7 +12121,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -12116,7 +12162,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -12157,7 +12203,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12198,7 +12244,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12239,7 +12285,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12280,7 +12326,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12321,7 +12367,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12362,7 +12408,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12403,7 +12449,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12444,7 +12490,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12481,19 +12527,19 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>66050</v>
+        <v>66650</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M333" t="n">
-        <v>1</v>
+        <v>1.000251312828207</v>
       </c>
     </row>
     <row r="334">
@@ -12522,17 +12568,11 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>66050</v>
-      </c>
-      <c r="L334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12563,17 +12603,11 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>66050</v>
-      </c>
-      <c r="L335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12607,14 +12641,8 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>66050</v>
-      </c>
-      <c r="L336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12648,14 +12676,8 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>66050</v>
-      </c>
-      <c r="L337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
       <c r="M337" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest XMR.xlsx
+++ b/BackTest/2019-10-18 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>461.8077737653171</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -715,11 +715,17 @@
         <v>603.7708737653172</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>68550</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +758,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +795,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +832,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +869,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +902,17 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>67950</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +945,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +982,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1019,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1056,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1093,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1130,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1167,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1200,17 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>68500</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1239,17 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>68500</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1278,17 @@
         <v>547.2102737653172</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>68500</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1317,17 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>67950</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1356,17 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>68300</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1395,17 @@
         <v>569.2102737653172</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>68300</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1434,17 @@
         <v>532.2102737653172</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>68500</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1473,17 @@
         <v>574.2102737653172</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>68300</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1512,17 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>68500</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1551,17 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>68750</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1594,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1631,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1668,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1705,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1742,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1779,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1812,17 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>68750</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1855,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1892,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1929,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1966,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2003,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2040,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2077,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2114,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2151,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2188,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2225,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2258,15 @@
         <v>639.451846099611</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2295,15 @@
         <v>657.2550460996109</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2332,15 @@
         <v>676.880346099611</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2373,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2410,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2447,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2484,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2521,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2558,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2595,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2632,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2665,15 @@
         <v>729.9454409420168</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2706,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2739,15 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2776,15 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2813,15 @@
         <v>759.1525919448809</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2850,15 @@
         <v>756.1815919448809</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2887,15 @@
         <v>785.9728919448809</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2924,15 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2961,17 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>69800</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3004,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3041,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3074,15 @@
         <v>812.9691012891979</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3111,15 @@
         <v>848.0593257557698</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3148,15 @@
         <v>849.9787257557698</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3185,15 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3222,15 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3259,17 @@
         <v>850.5800257557698</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>70450</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3298,17 @@
         <v>850.6115882557698</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>70150</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3337,17 @@
         <v>846.6227882557698</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>70400</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3376,17 @@
         <v>846.6543507557698</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>70200</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3415,17 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>70400</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3454,17 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>70350</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3493,17 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>70350</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3532,17 @@
         <v>809.3594507557698</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>70350</v>
+      </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3571,17 @@
         <v>828.1494507557697</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>70100</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3610,17 @@
         <v>887.2654618274518</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>70300</v>
+      </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3649,17 @@
         <v>885.0031618274518</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>70450</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3688,17 @@
         <v>955.2728507557698</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>70400</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3727,17 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>70450</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3766,17 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>70500</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3805,17 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>70500</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3844,17 @@
         <v>1271.09975075577</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>70500</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3883,17 @@
         <v>1269.43475075577</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>71350</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3922,15 @@
         <v>1207.10005075577</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3959,15 @@
         <v>1184.66285075577</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3996,15 @@
         <v>1195.66285075577</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +4033,15 @@
         <v>1184.22565075577</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +4070,15 @@
         <v>1183.22565075577</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4111,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4148,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4185,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4222,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4259,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4292,15 @@
         <v>1270.32405075577</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4329,15 @@
         <v>1287.42425075577</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4366,15 @@
         <v>1256.75785075577</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4403,15 @@
         <v>1247.38675075577</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4440,15 @@
         <v>1216.52875075577</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4477,15 @@
         <v>1246.97655075577</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4514,15 @@
         <v>1244.24415075577</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4551,15 @@
         <v>1222.84985075577</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4592,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4629,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4666,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4703,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4740,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4777,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4814,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4851,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4888,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4925,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4962,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4999,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +5036,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +5073,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +5110,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +5147,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +5184,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +5221,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +5258,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +5295,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +5332,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +5369,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +5406,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5443,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5480,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5517,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5554,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5009,7 +5591,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5628,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5665,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5702,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5739,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5776,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5813,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5850,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5887,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5924,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5961,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5998,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +6035,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +6072,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +6109,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +6146,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +6183,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +6220,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +6257,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +6294,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +6331,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +6368,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +6405,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +6442,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +6479,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,14 +6512,16 @@
         <v>1322.946344523474</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -5863,7 +6547,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6580,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6613,7 @@
         <v>1356.374904022429</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6646,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6679,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6712,7 @@
         <v>1344.870104022429</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6745,7 @@
         <v>1471.814804022429</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6778,7 @@
         <v>1468.595504022429</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6811,7 @@
         <v>1452.97640402243</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6844,7 @@
         <v>1452.652404022429</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6877,7 @@
         <v>1453.145404022429</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6910,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6943,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6976,7 @@
         <v>1451.824704022429</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +7009,7 @@
         <v>1450.091404022429</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +7042,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +7075,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +7108,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +7141,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +7174,7 @@
         <v>1431.975804022429</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +7207,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +7240,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +7273,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +7306,7 @@
         <v>1386.835504022429</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +7339,7 @@
         <v>1386.848504022429</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +7372,7 @@
         <v>1386.042604022429</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +7405,7 @@
         <v>1384.731904022429</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +7438,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7471,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7504,7 @@
         <v>1358.253504022429</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7537,7 @@
         <v>1351.621604022429</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7570,7 @@
         <v>1351.671611089566</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7603,7 @@
         <v>1318.709211089566</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +7636,7 @@
         <v>1319.213911089566</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +7669,7 @@
         <v>1369.213911089566</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7702,7 @@
         <v>1367.119911089566</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7735,7 @@
         <v>1367.139911089566</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7768,7 @@
         <v>1355.068911089566</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7801,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7834,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7867,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7900,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7933,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7966,7 @@
         <v>1338.030711089566</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7999,7 @@
         <v>1336.024011089566</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +8032,7 @@
         <v>1335.704011089566</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +8065,7 @@
         <v>1333.830011089566</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -9295,11 +9979,17 @@
         <v>1195.910791454222</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>68150</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +10018,17 @@
         <v>1201.806991454222</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>68050</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +10057,17 @@
         <v>1201.806991454222</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>68200</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +10096,17 @@
         <v>1172.863191454222</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>68200</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9429,9 +10137,15 @@
       <c r="H274" t="n">
         <v>1</v>
       </c>
-      <c r="I274" t="inlineStr"/>
+      <c r="I274" t="n">
+        <v>68050</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9462,9 +10176,15 @@
       <c r="H275" t="n">
         <v>1</v>
       </c>
-      <c r="I275" t="inlineStr"/>
+      <c r="I275" t="n">
+        <v>68050</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9495,9 +10215,15 @@
       <c r="H276" t="n">
         <v>1</v>
       </c>
-      <c r="I276" t="inlineStr"/>
+      <c r="I276" t="n">
+        <v>68100</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +10252,15 @@
         <v>1201.075591454222</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9563,7 +10293,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10326,15 @@
         <v>1197.517691454222</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10363,15 @@
         <v>1200.956591454222</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10400,15 @@
         <v>1197.278291454222</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10437,15 @@
         <v>1195.778291454222</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10474,15 @@
         <v>1195.778291454222</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10511,15 @@
         <v>1323.371591454222</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10548,15 @@
         <v>1323.371591454222</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10585,15 @@
         <v>1323.371591454222</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10622,15 @@
         <v>1327.371591454222</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10659,15 @@
         <v>1327.371591454222</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10700,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10737,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10774,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10811,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10844,15 @@
         <v>1299.840491454223</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10881,15 @@
         <v>1292.986491454222</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10918,15 @@
         <v>1285.296491454222</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10955,15 @@
         <v>1288.680891454222</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10992,15 @@
         <v>1290.574891454222</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +11029,15 @@
         <v>1280.553491454222</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11070,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +11103,15 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +11140,15 @@
         <v>1275.536191454222</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10353,9 +11179,15 @@
       <c r="H302" t="n">
         <v>1</v>
       </c>
-      <c r="I302" t="inlineStr"/>
+      <c r="I302" t="n">
+        <v>66850</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +11216,15 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +11253,15 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10452,9 +11292,15 @@
       <c r="H305" t="n">
         <v>1</v>
       </c>
-      <c r="I305" t="inlineStr"/>
+      <c r="I305" t="n">
+        <v>66700</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11333,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11370,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11407,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11444,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11481,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +11514,17 @@
         <v>1260.514291454222</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>66400</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +11553,17 @@
         <v>1306.977691454222</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>66400</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +11592,17 @@
         <v>1301.172791454222</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>66600</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +11631,17 @@
         <v>1302.538091454222</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>66500</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +11670,17 @@
         <v>1326.172791454222</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>66650</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +11709,17 @@
         <v>1306.206091454222</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>66850</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11752,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11789,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11826,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11859,17 @@
         <v>1304.947891454222</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>66250</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11898,17 @@
         <v>1304.727991454222</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>66650</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11937,17 @@
         <v>1341.226791454222</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>66250</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11976,17 @@
         <v>1351.184991454222</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>66300</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +12015,17 @@
         <v>1349.127491454222</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>66350</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +12054,17 @@
         <v>1351.308491454222</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>65850</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +12093,17 @@
         <v>1366.299191454222</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>66250</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +12132,17 @@
         <v>1353.861991454222</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>66850</v>
+      </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +12171,17 @@
         <v>1345.597291454222</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>66050</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +12210,17 @@
         <v>1337.332491454222</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>65900</v>
+      </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +12249,17 @@
         <v>1372.065291454222</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>65800</v>
+      </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +12288,17 @@
         <v>1373.489891454223</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>66250</v>
+      </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +12327,17 @@
         <v>1528.489891454223</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>66500</v>
+      </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +12366,17 @@
         <v>1642.457368835175</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>67000</v>
+      </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +12405,17 @@
         <v>1575.511868835174</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>67200</v>
+      </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11442,9 +12446,15 @@
       <c r="H335" t="n">
         <v>1</v>
       </c>
-      <c r="I335" t="inlineStr"/>
+      <c r="I335" t="n">
+        <v>66700</v>
+      </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11475,9 +12485,15 @@
       <c r="H336" t="n">
         <v>1</v>
       </c>
-      <c r="I336" t="inlineStr"/>
+      <c r="I336" t="n">
+        <v>66700</v>
+      </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11508,9 +12524,15 @@
       <c r="H337" t="n">
         <v>1</v>
       </c>
-      <c r="I337" t="inlineStr"/>
+      <c r="I337" t="n">
+        <v>66200</v>
+      </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +12565,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +12602,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +12639,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +12676,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +12713,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +12750,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +12787,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +12824,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11805,9 +12859,15 @@
       <c r="H346" t="n">
         <v>1</v>
       </c>
-      <c r="I346" t="inlineStr"/>
+      <c r="I346" t="n">
+        <v>65900</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11838,9 +12898,15 @@
       <c r="H347" t="n">
         <v>1</v>
       </c>
-      <c r="I347" t="inlineStr"/>
+      <c r="I347" t="n">
+        <v>65850</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +12935,17 @@
         <v>1467.018925999579</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>65550</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +12974,17 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>66300</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,11 +13013,17 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>66050</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +13052,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>66050</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12001,11 +13091,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>65950</v>
+      </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12034,11 +13130,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>65950</v>
+      </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12067,11 +13169,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>65950</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +13208,17 @@
         <v>1440.253625999579</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>65950</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +13247,17 @@
         <v>1431.083325999579</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>65750</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,15 +13286,17 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>65700</v>
       </c>
-      <c r="J357" t="n">
-        <v>65700</v>
-      </c>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,17 +13325,15 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>66150</v>
       </c>
-      <c r="J358" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L358" t="n">
@@ -12244,17 +13364,15 @@
         <v>1446.566525999579</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>66150</v>
       </c>
-      <c r="J359" t="n">
-        <v>65700</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -12285,15 +13403,17 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>66200</v>
       </c>
-      <c r="J360" t="n">
-        <v>66200</v>
-      </c>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12322,17 +13442,15 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>66300</v>
       </c>
-      <c r="J361" t="n">
-        <v>66200</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L361" t="n">
@@ -12363,15 +13481,15 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>66200</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12402,11 +13520,17 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>66450</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12435,11 +13559,17 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>66450</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12468,11 +13598,17 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>66300</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12501,11 +13637,17 @@
         <v>1448.877425999578</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>66300</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12534,11 +13676,17 @@
         <v>1449.557425999579</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>66450</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12567,11 +13715,17 @@
         <v>1450.407425999578</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>66800</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12600,11 +13754,17 @@
         <v>1450.407425999578</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>66900</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12633,11 +13793,17 @@
         <v>1450.207725999579</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>66900</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12666,11 +13832,17 @@
         <v>1450.507725999578</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>66750</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12699,11 +13871,17 @@
         <v>1458.545725999579</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>67000</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12732,11 +13910,17 @@
         <v>1464.745525999579</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>67300</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12769,7 +13953,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12798,11 +13986,17 @@
         <v>1461.795577038154</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>66950</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12835,7 +14029,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12868,7 +14066,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12901,7 +14103,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12934,7 +14140,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +14177,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12996,11 +14210,15 @@
         <v>1420.230693382879</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13033,7 +14251,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13066,7 +14288,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13099,7 +14325,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +14362,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13165,7 +14399,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +14436,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13231,7 +14473,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13260,11 +14506,15 @@
         <v>1378.282093382879</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13293,11 +14543,15 @@
         <v>8158.803593382879</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13330,7 +14584,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13363,7 +14621,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13396,7 +14658,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13429,7 +14695,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13462,7 +14732,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13495,7 +14769,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13528,7 +14806,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13561,7 +14843,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13590,15 +14876,15 @@
         <v>8175.61919338288</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>66700</v>
-      </c>
-      <c r="J399" t="n">
-        <v>66700</v>
-      </c>
-      <c r="K399" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13630,12 +14916,10 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>66700</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -13666,17 +14950,15 @@
         <v>8175.558282329855</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>66600</v>
       </c>
-      <c r="J401" t="n">
-        <v>66700</v>
-      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -13711,7 +14993,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13744,7 +15030,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13777,7 +15067,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13810,7 +15104,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13843,13 +15141,17 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
       <c r="M406" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XMR.xlsx
+++ b/BackTest/2019-10-18 BackTest XMR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>461.8077737653171</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>576.1940737653172</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>501.7756737653172</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>579.0716737653172</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>527.7002737653172</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>549.4534737653172</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,17 +715,11 @@
         <v>603.7708737653172</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>68550</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,15 +748,11 @@
         <v>574.8282737653172</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,15 +781,11 @@
         <v>621.7249737653173</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -828,15 +814,11 @@
         <v>600.8464737653172</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,15 +847,11 @@
         <v>598.7157737653172</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -902,17 +880,11 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>67950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -941,15 +913,11 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -978,15 +946,11 @@
         <v>617.5274737653172</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,15 +979,11 @@
         <v>624.3203737653172</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1052,15 +1012,11 @@
         <v>571.7883737653171</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1089,15 +1045,11 @@
         <v>583.0617737653172</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1126,15 +1078,11 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1163,15 +1111,11 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1200,17 +1144,11 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>68500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1239,17 +1177,11 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>68500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1278,17 +1210,11 @@
         <v>547.2102737653172</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>68500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1317,17 +1243,11 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>67950</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1356,17 +1276,11 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>68300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1395,17 +1309,11 @@
         <v>569.2102737653172</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>68300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1434,17 +1342,11 @@
         <v>532.2102737653172</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>68500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1473,17 +1375,11 @@
         <v>574.2102737653172</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>68300</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1512,17 +1408,11 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>68500</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1551,17 +1441,11 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>68750</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1594,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1627,15 +1507,11 @@
         <v>580.9002737653171</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1664,15 +1540,11 @@
         <v>554.1508737653171</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1742,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1775,15 +1639,11 @@
         <v>566.1508737653171</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1812,17 +1672,11 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>68750</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1851,15 +1705,11 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1888,15 +1738,11 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1925,15 +1771,11 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1962,15 +1804,11 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1999,15 +1837,11 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2036,15 +1870,11 @@
         <v>617.657473765317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2073,15 +1903,11 @@
         <v>638.657473765317</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2110,15 +1936,11 @@
         <v>665.667473765317</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2151,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2188,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2225,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2262,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2336,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2373,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2410,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2521,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2558,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2595,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2632,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2669,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2743,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2780,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2817,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2891,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2928,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2961,17 +2695,11 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>69800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3004,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3078,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3115,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3152,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3189,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3259,17 +2959,11 @@
         <v>850.5800257557698</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>70450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3298,17 +2992,11 @@
         <v>850.6115882557698</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>70150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3337,17 +3025,11 @@
         <v>846.6227882557698</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>70400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3376,17 +3058,11 @@
         <v>846.6543507557698</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>70200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3415,17 +3091,11 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>70400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3454,17 +3124,11 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>70350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3157,11 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>70350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3190,11 @@
         <v>809.3594507557698</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>70350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3571,17 +3223,11 @@
         <v>828.1494507557697</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>70100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3610,17 +3256,11 @@
         <v>887.2654618274518</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>70300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3649,17 +3289,11 @@
         <v>885.0031618274518</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>70450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3688,17 +3322,11 @@
         <v>955.2728507557698</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>70400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3727,17 +3355,11 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>70450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3766,17 +3388,11 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>70500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3805,17 +3421,11 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>70500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3844,17 +3454,11 @@
         <v>1271.09975075577</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>70500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3883,17 +3487,11 @@
         <v>1269.43475075577</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>71350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3926,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3963,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4037,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4074,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4222,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4259,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4296,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4333,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4370,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4407,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4518,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4555,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4592,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4629,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4666,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4703,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4740,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4814,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4851,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4925,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4999,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5036,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5073,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5110,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5184,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5295,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5332,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5443,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5480,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5517,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5628,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5739,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5776,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5813,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5850,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5887,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5924,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5961,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6035,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6109,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6146,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6183,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6220,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6257,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6294,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6368,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6405,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6442,11 +5768,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6479,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6512,16 +5830,14 @@
         <v>1322.946344523474</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
       <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
@@ -6547,7 +5863,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6580,7 +5896,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6613,7 +5929,7 @@
         <v>1356.374904022429</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6646,7 +5962,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6679,7 +5995,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6712,7 +6028,7 @@
         <v>1344.870104022429</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6745,7 +6061,7 @@
         <v>1471.814804022429</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6778,7 +6094,7 @@
         <v>1468.595504022429</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6811,7 +6127,7 @@
         <v>1452.97640402243</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6844,7 +6160,7 @@
         <v>1452.652404022429</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6877,7 +6193,7 @@
         <v>1453.145404022429</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6910,7 +6226,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6943,7 +6259,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6976,7 +6292,7 @@
         <v>1451.824704022429</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7009,7 +6325,7 @@
         <v>1450.091404022429</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7042,7 +6358,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7075,7 +6391,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7108,7 +6424,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7141,7 +6457,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7174,7 +6490,7 @@
         <v>1431.975804022429</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7207,7 +6523,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7240,7 +6556,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7273,7 +6589,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7306,7 +6622,7 @@
         <v>1386.835504022429</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7339,7 +6655,7 @@
         <v>1386.848504022429</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7372,7 +6688,7 @@
         <v>1386.042604022429</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7405,7 +6721,7 @@
         <v>1384.731904022429</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7438,7 +6754,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7471,7 +6787,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7504,7 +6820,7 @@
         <v>1358.253504022429</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7537,7 +6853,7 @@
         <v>1351.621604022429</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7570,7 +6886,7 @@
         <v>1351.671611089566</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7603,7 +6919,7 @@
         <v>1318.709211089566</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7636,7 +6952,7 @@
         <v>1319.213911089566</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7669,7 +6985,7 @@
         <v>1369.213911089566</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7702,7 +7018,7 @@
         <v>1367.119911089566</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7735,7 +7051,7 @@
         <v>1367.139911089566</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7768,7 +7084,7 @@
         <v>1355.068911089566</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7801,7 +7117,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7834,7 +7150,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7867,7 +7183,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7900,7 +7216,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7933,7 +7249,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7966,7 +7282,7 @@
         <v>1338.030711089566</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7999,7 +7315,7 @@
         <v>1336.024011089566</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8032,7 +7348,7 @@
         <v>1335.704011089566</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8065,7 +7381,7 @@
         <v>1333.830011089566</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -9979,954 +9295,858 @@
         <v>1195.910791454222</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C271" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D271" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E271" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F271" t="n">
+        <v>5.8962</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1201.806991454222</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C272" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D272" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E272" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1.1914</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1201.806991454222</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C273" t="n">
+        <v>68050</v>
+      </c>
+      <c r="D273" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E273" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F273" t="n">
+        <v>28.9438</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1172.863191454222</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C274" t="n">
+        <v>68050</v>
+      </c>
+      <c r="D274" t="n">
+        <v>68050</v>
+      </c>
+      <c r="E274" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F274" t="n">
+        <v>7.9861</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1172.863191454222</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C275" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D275" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E275" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F275" t="n">
+        <v>16.2857</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1189.148891454222</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C276" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D276" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E276" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F276" t="n">
+        <v>12.3945</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1201.543391454222</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>68350</v>
+      </c>
+      <c r="C277" t="n">
+        <v>68350</v>
+      </c>
+      <c r="D277" t="n">
+        <v>68350</v>
+      </c>
+      <c r="E277" t="n">
+        <v>68350</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.4678</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1201.075591454222</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C278" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D278" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E278" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3.4389</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1197.636691454222</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>67850</v>
+      </c>
+      <c r="C279" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D279" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E279" t="n">
+        <v>67850</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1197.517691454222</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C280" t="n">
+        <v>68250</v>
+      </c>
+      <c r="D280" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E280" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3.4389</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1200.956591454222</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
         <v>68150</v>
       </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
+      <c r="C281" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D281" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E281" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3.6783</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1197.278291454222</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C282" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D282" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E282" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1195.778291454222</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C283" t="n">
+        <v>67800</v>
+      </c>
+      <c r="D283" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E283" t="n">
+        <v>67800</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1195.778291454222</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>67600</v>
+      </c>
+      <c r="C284" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D284" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E284" t="n">
+        <v>67600</v>
+      </c>
+      <c r="F284" t="n">
+        <v>127.5933</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1323.371591454222</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C285" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D285" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E285" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1323.371591454222</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C286" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D286" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E286" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F286" t="n">
+        <v>67</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1323.371591454222</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C287" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D287" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E287" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F287" t="n">
+        <v>4</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1327.371591454222</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C288" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D288" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E288" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1327.371591454222</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>67650</v>
+      </c>
+      <c r="C289" t="n">
+        <v>67650</v>
+      </c>
+      <c r="D289" t="n">
+        <v>67650</v>
+      </c>
+      <c r="E289" t="n">
+        <v>67650</v>
+      </c>
+      <c r="F289" t="n">
+        <v>27.5797</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1299.791891454222</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>67850</v>
+      </c>
+      <c r="C290" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D290" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E290" t="n">
+        <v>67850</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3.587</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1303.378891454222</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C291" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D291" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E291" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3.5384</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1299.840491454223</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J291" t="n">
+        <v>67850</v>
+      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C292" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D292" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E292" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2.4052</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1299.840491454223</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>67850</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>67550</v>
+      </c>
+      <c r="C293" t="n">
+        <v>67550</v>
+      </c>
+      <c r="D293" t="n">
+        <v>67550</v>
+      </c>
+      <c r="E293" t="n">
+        <v>67550</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1.1332</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1299.840491454223</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>67850</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>67400</v>
+      </c>
+      <c r="C294" t="n">
+        <v>67400</v>
+      </c>
+      <c r="D294" t="n">
+        <v>67400</v>
+      </c>
+      <c r="E294" t="n">
+        <v>67400</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6.854</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1292.986491454222</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>67050</v>
+      </c>
+      <c r="C295" t="n">
+        <v>67000</v>
+      </c>
+      <c r="D295" t="n">
+        <v>67050</v>
+      </c>
+      <c r="E295" t="n">
+        <v>67000</v>
+      </c>
+      <c r="F295" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1285.296491454222</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>67400</v>
+      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C271" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D271" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E271" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F271" t="n">
-        <v>5.8962</v>
-      </c>
-      <c r="G271" t="n">
-        <v>1201.806991454222</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>68050</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C272" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D272" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E272" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F272" t="n">
-        <v>1.1914</v>
-      </c>
-      <c r="G272" t="n">
-        <v>1201.806991454222</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C273" t="n">
-        <v>68050</v>
-      </c>
-      <c r="D273" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E273" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F273" t="n">
-        <v>28.9438</v>
-      </c>
-      <c r="G273" t="n">
-        <v>1172.863191454222</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>68200</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C274" t="n">
-        <v>68050</v>
-      </c>
-      <c r="D274" t="n">
-        <v>68050</v>
-      </c>
-      <c r="E274" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F274" t="n">
-        <v>7.9861</v>
-      </c>
-      <c r="G274" t="n">
-        <v>1172.863191454222</v>
-      </c>
-      <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>68050</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C275" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D275" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E275" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F275" t="n">
-        <v>16.2857</v>
-      </c>
-      <c r="G275" t="n">
-        <v>1189.148891454222</v>
-      </c>
-      <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>68050</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C276" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D276" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E276" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F276" t="n">
-        <v>12.3945</v>
-      </c>
-      <c r="G276" t="n">
-        <v>1201.543391454222</v>
-      </c>
-      <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>68100</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>68350</v>
-      </c>
-      <c r="C277" t="n">
-        <v>68350</v>
-      </c>
-      <c r="D277" t="n">
-        <v>68350</v>
-      </c>
-      <c r="E277" t="n">
-        <v>68350</v>
-      </c>
-      <c r="F277" t="n">
-        <v>0.4678</v>
-      </c>
-      <c r="G277" t="n">
-        <v>1201.075591454222</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C278" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D278" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E278" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F278" t="n">
-        <v>3.4389</v>
-      </c>
-      <c r="G278" t="n">
-        <v>1197.636691454222</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>67850</v>
-      </c>
-      <c r="C279" t="n">
-        <v>67850</v>
-      </c>
-      <c r="D279" t="n">
-        <v>67850</v>
-      </c>
-      <c r="E279" t="n">
-        <v>67850</v>
-      </c>
-      <c r="F279" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="G279" t="n">
-        <v>1197.517691454222</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C280" t="n">
-        <v>68250</v>
-      </c>
-      <c r="D280" t="n">
-        <v>68250</v>
-      </c>
-      <c r="E280" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F280" t="n">
-        <v>3.4389</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1200.956591454222</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>68150</v>
-      </c>
-      <c r="C281" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D281" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E281" t="n">
-        <v>68150</v>
-      </c>
-      <c r="F281" t="n">
-        <v>3.6783</v>
-      </c>
-      <c r="G281" t="n">
-        <v>1197.278291454222</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>67800</v>
-      </c>
-      <c r="C282" t="n">
-        <v>67800</v>
-      </c>
-      <c r="D282" t="n">
-        <v>67800</v>
-      </c>
-      <c r="E282" t="n">
-        <v>67800</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G282" t="n">
-        <v>1195.778291454222</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>67800</v>
-      </c>
-      <c r="C283" t="n">
-        <v>67800</v>
-      </c>
-      <c r="D283" t="n">
-        <v>67800</v>
-      </c>
-      <c r="E283" t="n">
-        <v>67800</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3.403</v>
-      </c>
-      <c r="G283" t="n">
-        <v>1195.778291454222</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>67600</v>
-      </c>
-      <c r="C284" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D284" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E284" t="n">
-        <v>67600</v>
-      </c>
-      <c r="F284" t="n">
-        <v>127.5933</v>
-      </c>
-      <c r="G284" t="n">
-        <v>1323.371591454222</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C285" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D285" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E285" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F285" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G285" t="n">
-        <v>1323.371591454222</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C286" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D286" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E286" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F286" t="n">
-        <v>67</v>
-      </c>
-      <c r="G286" t="n">
-        <v>1323.371591454222</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C287" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D287" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E287" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F287" t="n">
-        <v>4</v>
-      </c>
-      <c r="G287" t="n">
-        <v>1327.371591454222</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C288" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D288" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E288" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1</v>
-      </c>
-      <c r="G288" t="n">
-        <v>1327.371591454222</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>67650</v>
-      </c>
-      <c r="C289" t="n">
-        <v>67650</v>
-      </c>
-      <c r="D289" t="n">
-        <v>67650</v>
-      </c>
-      <c r="E289" t="n">
-        <v>67650</v>
-      </c>
-      <c r="F289" t="n">
-        <v>27.5797</v>
-      </c>
-      <c r="G289" t="n">
-        <v>1299.791891454222</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>67850</v>
-      </c>
-      <c r="C290" t="n">
-        <v>67850</v>
-      </c>
-      <c r="D290" t="n">
-        <v>67850</v>
-      </c>
-      <c r="E290" t="n">
-        <v>67850</v>
-      </c>
-      <c r="F290" t="n">
-        <v>3.587</v>
-      </c>
-      <c r="G290" t="n">
-        <v>1303.378891454222</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C291" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D291" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E291" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3.5384</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1299.840491454223</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C292" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D292" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E292" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2.4052</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1299.840491454223</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>67550</v>
-      </c>
-      <c r="C293" t="n">
-        <v>67550</v>
-      </c>
-      <c r="D293" t="n">
-        <v>67550</v>
-      </c>
-      <c r="E293" t="n">
-        <v>67550</v>
-      </c>
-      <c r="F293" t="n">
-        <v>1.1332</v>
-      </c>
-      <c r="G293" t="n">
-        <v>1299.840491454223</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>67400</v>
-      </c>
-      <c r="C294" t="n">
-        <v>67400</v>
-      </c>
-      <c r="D294" t="n">
-        <v>67400</v>
-      </c>
-      <c r="E294" t="n">
-        <v>67400</v>
-      </c>
-      <c r="F294" t="n">
-        <v>6.854</v>
-      </c>
-      <c r="G294" t="n">
-        <v>1292.986491454222</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>67050</v>
-      </c>
-      <c r="C295" t="n">
-        <v>67000</v>
-      </c>
-      <c r="D295" t="n">
-        <v>67050</v>
-      </c>
-      <c r="E295" t="n">
-        <v>67000</v>
-      </c>
-      <c r="F295" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="G295" t="n">
-        <v>1285.296491454222</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10955,9 +10175,11 @@
         <v>1288.680891454222</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>67000</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -11029,9 +10251,11 @@
         <v>1280.553491454222</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>67650</v>
+      </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11066,9 +10290,11 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>66900</v>
+      </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11103,9 +10329,11 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>67300</v>
+      </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11140,9 +10368,11 @@
         <v>1275.536191454222</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>67300</v>
+      </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11216,9 +10446,11 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>67100</v>
+      </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11253,9 +10485,11 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>66700</v>
+      </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11329,9 +10563,11 @@
         <v>1282.272091454222</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>67000</v>
+      </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11514,11 +10750,9 @@
         <v>1260.514291454222</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>66400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11553,11 +10787,9 @@
         <v>1306.977691454222</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>66400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11592,11 +10824,9 @@
         <v>1301.172791454222</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>66600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11631,11 +10861,9 @@
         <v>1302.538091454222</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11670,11 +10898,9 @@
         <v>1326.172791454222</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>66650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11709,11 +10935,9 @@
         <v>1306.206091454222</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>66850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -11859,11 +11083,9 @@
         <v>1304.947891454222</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>66250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
@@ -11898,11 +11120,9 @@
         <v>1304.727991454222</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>66650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
@@ -11937,11 +11157,9 @@
         <v>1341.226791454222</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>66250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
@@ -11976,11 +11194,9 @@
         <v>1351.184991454222</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
@@ -12015,11 +11231,9 @@
         <v>1349.127491454222</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>66350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
@@ -12054,11 +11268,9 @@
         <v>1351.308491454222</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>65850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
@@ -12093,11 +11305,9 @@
         <v>1366.299191454222</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>66250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
@@ -12132,11 +11342,9 @@
         <v>1353.861991454222</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>66850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12171,11 +11379,9 @@
         <v>1345.597291454222</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>66050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12210,11 +11416,9 @@
         <v>1337.332491454222</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>65900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12249,11 +11453,9 @@
         <v>1372.065291454222</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>65800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12288,11 +11490,9 @@
         <v>1373.489891454223</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>66250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12327,11 +11527,9 @@
         <v>1528.489891454223</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>66500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12366,11 +11564,9 @@
         <v>1642.457368835175</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12405,11 +11601,9 @@
         <v>1575.511868835174</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>67200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr">
         <is>
@@ -12444,11 +11638,9 @@
         <v>1575.511868835174</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>66700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr">
         <is>
@@ -12483,11 +11675,9 @@
         <v>1555.511868835174</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>66700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr">
         <is>
@@ -12522,11 +11712,9 @@
         <v>1557.150068835175</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>66200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr">
         <is>
@@ -12857,11 +12045,9 @@
         <v>1510.529568835175</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>65900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr">
         <is>
@@ -12896,11 +12082,9 @@
         <v>1467.002168835175</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>65850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr">
         <is>
@@ -12935,11 +12119,9 @@
         <v>1467.018925999579</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>65550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr">
         <is>
@@ -12974,11 +12156,9 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr">
         <is>
@@ -13013,11 +12193,9 @@
         <v>1445.000925999579</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>66050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr">
         <is>
@@ -13052,11 +12230,9 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>66050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr">
         <is>
@@ -13091,11 +12267,9 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>65950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr">
         <is>
@@ -13130,11 +12304,9 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>65950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr">
         <is>
@@ -13169,11 +12341,9 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>65950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr">
         <is>
@@ -13208,11 +12378,9 @@
         <v>1440.253625999579</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>65950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr">
         <is>
@@ -13247,11 +12415,9 @@
         <v>1431.083325999579</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>65750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr">
         <is>
@@ -13286,11 +12452,9 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>65700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr">
         <is>
@@ -13325,11 +12489,9 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>66150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr">
         <is>
@@ -13364,11 +12526,9 @@
         <v>1446.566525999579</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>66150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr">
         <is>
@@ -13403,11 +12563,9 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>66200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -13442,11 +12600,9 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13481,11 +12637,9 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13520,11 +12674,9 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13559,11 +12711,9 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13598,11 +12748,9 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13637,11 +12785,9 @@
         <v>1448.877425999578</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>66300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13676,11 +12822,9 @@
         <v>1449.557425999579</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>66450</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -13715,11 +12859,9 @@
         <v>1450.407425999578</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>66800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -13754,11 +12896,9 @@
         <v>1450.407425999578</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -13793,11 +12933,9 @@
         <v>1450.207725999579</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -13832,11 +12970,9 @@
         <v>1450.507725999578</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>66750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr">
         <is>
@@ -13871,11 +13007,9 @@
         <v>1458.545725999579</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr">
         <is>
@@ -13910,11 +13044,9 @@
         <v>1464.745525999579</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13986,11 +13118,9 @@
         <v>1461.795577038154</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>66950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -14617,18 +13747,16 @@
         <v>8175.083493382879</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -14658,11 +13786,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14695,11 +13819,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14728,15 +13848,11 @@
         <v>8174.404593382879</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14769,11 +13885,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14806,11 +13918,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14839,15 +13947,11 @@
         <v>8176.693193382879</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14876,15 +13980,11 @@
         <v>8175.61919338288</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14913,15 +14013,11 @@
         <v>8175.525093382879</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14950,17 +14046,11 @@
         <v>8175.558282329855</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>66600</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14989,15 +14079,11 @@
         <v>8174.531882329855</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15026,15 +14112,11 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15063,15 +14145,11 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15100,15 +14178,11 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15141,17 +14215,13 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
       <c r="M406" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest XMR.xlsx
+++ b/BackTest/2019-10-18 BackTest XMR.xlsx
@@ -451,7 +451,7 @@
         <v>461.8077737653171</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>576.1940737653172</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>501.7756737653172</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>584.2421737653171</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>579.0716737653172</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>527.7002737653172</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>549.4534737653172</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>603.7708737653172</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>574.8282737653172</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>621.7249737653173</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>600.8464737653172</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>598.7157737653172</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>604.5274737653172</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>617.5274737653172</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>624.3203737653172</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>571.7883737653171</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>583.0617737653172</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>547.4501737653172</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>547.2102737653172</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>557.2102737653172</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>569.2102737653172</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>532.2102737653172</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>574.2102737653172</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>580.3602737653172</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>580.9002737653171</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>554.1508737653171</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>566.1508737653171</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>573.3298737653171</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>601.3298737653171</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>617.657473765317</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>638.657473765317</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>665.667473765317</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>747.6315409420168</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>729.9454409420168</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>729.9454409420168</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>734.7488472457409</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>759.1525919448809</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>756.1815919448809</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>785.9728919448809</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>745.9728919448809</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>805.8101257557698</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>812.9691012891979</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>848.0593257557698</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>849.9787257557698</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>850.9796257557698</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>850.5800257557698</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>850.6115882557698</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>846.6227882557698</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>846.6543507557698</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>840.6543507557698</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>809.3594507557698</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>828.1494507557697</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>887.2654618274518</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>885.0031618274518</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>955.2728507557698</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1138.17245075577</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1271.09975075577</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1269.43475075577</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1207.10005075577</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1184.66285075577</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1195.66285075577</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1184.22565075577</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1183.22565075577</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1183.23565075577</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>1183.23565075577</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>1191.23565075577</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1253.22525075577</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1270.32405075577</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1287.42425075577</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1256.75785075577</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1247.38675075577</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1216.52875075577</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1246.97655075577</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1244.24415075577</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1222.84985075577</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1228.58935075577</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1218.96605075577</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1218.34205075577</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1218.35205075577</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>1215.20645075577</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1207.66005075577</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1213.15395075577</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1209.82995075577</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1210.30715075577</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1210.30715075577</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1230.92715075577</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1232.92715075577</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1228.57755075577</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1227.06285075577</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1254.12245075577</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1251.55545075577</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1241.55545075577</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1247.915344523475</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1246.915344523475</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1246.915344523475</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1246.245344523475</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1249.011444523475</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1254.011444523475</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1259.011444523475</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1262.011444523475</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1262.011444523475</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1133.690944523475</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1150.750944523475</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1134.219044523475</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1134.219044523475</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1114.219044523475</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1104.013344523475</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1167.650444523475</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1213.008044523474</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1200.683044523474</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1292.058544523474</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1292.118544523474</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1299.118544523474</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1305.875244523474</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1311.875244523474</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1322.946344523474</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1321.946344523474</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1356.374904022429</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1356.631104022429</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1344.870104022429</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1471.814804022429</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1468.595504022429</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1452.97640402243</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1452.652404022429</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1453.145404022429</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1451.804704022429</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1451.824704022429</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1450.091404022429</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>1450.111404022429</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1424.889004022429</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1431.975804022429</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>1396.282104022429</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>1386.835504022429</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1386.848504022429</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1386.042604022429</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>1384.731904022429</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1350.439304022429</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1358.253504022429</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1351.621604022429</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1351.671611089566</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1318.709211089566</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1319.213911089566</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1369.213911089566</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1367.119911089566</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1367.139911089566</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1355.068911089566</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1338.697711089566</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>1382.857611089566</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>1376.117811089566</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>1373.117811089566</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>1384.037811089566</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>1416.498111089566</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>1430.194691454222</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>1424.527691454222</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>1428.002091454222</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>1440.432191454222</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>1477.670291454222</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>1474.255691454222</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>1473.955691454222</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>1473.151391454222</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>1472.602691454222</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>1473.042091454222</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1472.239891454222</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1473.771891454222</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1472.271891454222</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1467.569891454222</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1467.569891454222</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1494.149191454222</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>1490.951891454222</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1493.387291454222</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1489.799491454222</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1470.319891454222</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1469.639891454222</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1466.210791454222</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1465.150791454222</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9988,14 +9988,10 @@
         <v>1299.840491454223</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>67850</v>
-      </c>
-      <c r="J291" t="n">
-        <v>67850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
@@ -10028,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>67850</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10067,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>67850</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10136,17 +10120,11 @@
         <v>1285.296491454222</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10175,17 +10153,11 @@
         <v>1288.680891454222</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10251,17 +10219,11 @@
         <v>1280.553491454222</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>67650</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10290,17 +10252,11 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>66900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10329,17 +10285,11 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10368,17 +10318,11 @@
         <v>1275.536191454222</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>67300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10407,17 +10351,11 @@
         <v>1286.607291454222</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>66850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10446,17 +10384,11 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>67100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10485,17 +10417,11 @@
         <v>1280.078491454222</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>66700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10524,17 +10450,11 @@
         <v>1283.757491454222</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>66700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10563,17 +10483,11 @@
         <v>1282.272091454222</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10606,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10680,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10717,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10754,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10791,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10828,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10865,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10902,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10939,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10976,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11087,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11124,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11161,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11198,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11235,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11272,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11309,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11346,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11420,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11457,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11494,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11531,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11568,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11605,11 +11411,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11642,11 +11444,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11679,11 +11477,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11716,11 +11510,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11753,11 +11543,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11790,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11864,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11901,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11938,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11975,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12012,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12049,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12086,11 +11840,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12123,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12160,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12197,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12234,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12267,15 +12001,15 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J352" t="n">
+        <v>65950</v>
+      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12304,13 +12038,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I353" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J353" t="n">
+        <v>65950</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L353" t="n">
@@ -12341,13 +12079,17 @@
         <v>1443.449125999579</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J354" t="n">
+        <v>65950</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L354" t="n">
@@ -12378,15 +12120,15 @@
         <v>1440.253625999579</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>65950</v>
+      </c>
+      <c r="J355" t="n">
+        <v>65950</v>
+      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12415,13 +12157,17 @@
         <v>1431.083325999579</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>65750</v>
+      </c>
+      <c r="J356" t="n">
+        <v>65950</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L356" t="n">
@@ -12452,13 +12198,17 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>65700</v>
+      </c>
+      <c r="J357" t="n">
+        <v>65950</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L357" t="n">
@@ -12489,15 +12239,15 @@
         <v>1431.928725999579</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>66150</v>
+      </c>
+      <c r="J358" t="n">
+        <v>66150</v>
+      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12526,13 +12276,17 @@
         <v>1446.566525999579</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>66150</v>
+      </c>
+      <c r="J359" t="n">
+        <v>66150</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -12563,13 +12317,17 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>66200</v>
+      </c>
+      <c r="J360" t="n">
+        <v>66150</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12600,15 +12358,15 @@
         <v>1448.318325999579</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J361" t="n">
+        <v>66300</v>
+      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12637,13 +12395,17 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J362" t="n">
+        <v>66300</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L362" t="n">
@@ -12674,13 +12436,17 @@
         <v>1449.120825999579</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>66450</v>
+      </c>
+      <c r="J363" t="n">
+        <v>66300</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L363" t="n">
@@ -12711,15 +12477,15 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>66450</v>
+      </c>
+      <c r="J364" t="n">
+        <v>66450</v>
+      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12748,13 +12514,17 @@
         <v>1448.877325999578</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J365" t="n">
+        <v>66450</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L365" t="n">
@@ -12785,13 +12555,17 @@
         <v>1448.877425999578</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>66300</v>
+      </c>
+      <c r="J366" t="n">
+        <v>66450</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L366" t="n">
@@ -12826,11 +12600,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12863,11 +12633,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12900,11 +12666,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12937,11 +12699,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12974,11 +12732,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13011,11 +12765,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13048,11 +12798,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13085,11 +12831,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13122,11 +12864,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13159,11 +12897,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13196,11 +12930,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13233,11 +12963,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13270,11 +12996,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13307,11 +13029,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13344,11 +13062,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13381,11 +13095,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13418,11 +13128,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13455,11 +13161,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13492,11 +13194,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13529,11 +13227,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13566,11 +13260,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13603,11 +13293,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13640,11 +13326,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13677,11 +13359,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13714,11 +13392,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13751,12 +13425,10 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
       <c r="M392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -13848,7 +13520,7 @@
         <v>8174.404593382879</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13947,7 +13619,7 @@
         <v>8176.693193382879</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13980,7 +13652,7 @@
         <v>8175.61919338288</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14013,7 +13685,7 @@
         <v>8175.525093382879</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14046,7 +13718,7 @@
         <v>8175.558282329855</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14079,7 +13751,7 @@
         <v>8174.531882329855</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14112,7 +13784,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14145,7 +13817,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14178,7 +13850,7 @@
         <v>8148.702682329855</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
